--- a/bombay1.xlsx
+++ b/bombay1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2907"/>
+  <dimension ref="A1:F3064"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49365,6 +49365,2550 @@
         <v>104</v>
       </c>
     </row>
+    <row r="2908">
+      <c r="A2908" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2908" t="inlineStr">
+        <is>
+          <t>[30]</t>
+        </is>
+      </c>
+      <c r="C2908" t="inlineStr"/>
+      <c r="D2908" t="inlineStr"/>
+      <c r="E2908" t="inlineStr"/>
+      <c r="F2908" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2909">
+      <c r="A2909" t="n">
+        <v>11</v>
+      </c>
+      <c r="B2909" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2909" t="inlineStr"/>
+      <c r="D2909" t="inlineStr"/>
+      <c r="E2909" t="inlineStr"/>
+      <c r="F2909" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2910">
+      <c r="A2910" t="n">
+        <v>12</v>
+      </c>
+      <c r="B2910" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2910" t="inlineStr"/>
+      <c r="D2910" t="inlineStr"/>
+      <c r="E2910" t="inlineStr"/>
+      <c r="F2910" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2911">
+      <c r="A2911" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2911" t="inlineStr">
+        <is>
+          <t>[20]</t>
+        </is>
+      </c>
+      <c r="C2911" t="inlineStr"/>
+      <c r="D2911" t="inlineStr"/>
+      <c r="E2911" t="inlineStr"/>
+      <c r="F2911" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2912">
+      <c r="A2912" t="n">
+        <v>31</v>
+      </c>
+      <c r="B2912" t="inlineStr">
+        <is>
+          <t>[19]</t>
+        </is>
+      </c>
+      <c r="C2912" t="inlineStr"/>
+      <c r="D2912" t="inlineStr"/>
+      <c r="E2912" t="inlineStr"/>
+      <c r="F2912" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2913">
+      <c r="A2913" t="n">
+        <v>35</v>
+      </c>
+      <c r="B2913" t="inlineStr">
+        <is>
+          <t>[14]</t>
+        </is>
+      </c>
+      <c r="C2913" t="inlineStr"/>
+      <c r="D2913" t="inlineStr"/>
+      <c r="E2913" t="inlineStr"/>
+      <c r="F2913" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2914">
+      <c r="A2914" t="n">
+        <v>9</v>
+      </c>
+      <c r="B2914" t="inlineStr">
+        <is>
+          <t>[30]</t>
+        </is>
+      </c>
+      <c r="C2914" t="inlineStr"/>
+      <c r="D2914" t="inlineStr"/>
+      <c r="E2914" t="inlineStr"/>
+      <c r="F2914" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2915">
+      <c r="A2915" t="n">
+        <v>27</v>
+      </c>
+      <c r="B2915" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+      <c r="C2915" t="inlineStr"/>
+      <c r="D2915" t="inlineStr"/>
+      <c r="E2915" t="inlineStr"/>
+      <c r="F2915" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2916">
+      <c r="A2916" t="n">
+        <v>31</v>
+      </c>
+      <c r="B2916" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+      <c r="C2916" t="inlineStr"/>
+      <c r="D2916" t="inlineStr"/>
+      <c r="E2916" t="inlineStr"/>
+      <c r="F2916" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2917">
+      <c r="A2917" t="n">
+        <v>32</v>
+      </c>
+      <c r="B2917" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2917" t="inlineStr"/>
+      <c r="D2917" t="inlineStr"/>
+      <c r="E2917" t="inlineStr"/>
+      <c r="F2917" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2918">
+      <c r="A2918" t="n">
+        <v>25</v>
+      </c>
+      <c r="B2918" t="inlineStr">
+        <is>
+          <t>[27]</t>
+        </is>
+      </c>
+      <c r="C2918" t="inlineStr"/>
+      <c r="D2918" t="inlineStr"/>
+      <c r="E2918" t="inlineStr"/>
+      <c r="F2918" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2919">
+      <c r="A2919" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2919" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2919" t="inlineStr"/>
+      <c r="D2919" t="inlineStr"/>
+      <c r="E2919" t="inlineStr"/>
+      <c r="F2919" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2920">
+      <c r="A2920" t="n">
+        <v>18</v>
+      </c>
+      <c r="B2920" t="inlineStr">
+        <is>
+          <t>[12]</t>
+        </is>
+      </c>
+      <c r="C2920" t="inlineStr"/>
+      <c r="D2920" t="inlineStr"/>
+      <c r="E2920" t="inlineStr"/>
+      <c r="F2920" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2921">
+      <c r="A2921" t="n">
+        <v>23</v>
+      </c>
+      <c r="B2921" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2921" t="inlineStr"/>
+      <c r="D2921" t="inlineStr"/>
+      <c r="E2921" t="inlineStr"/>
+      <c r="F2921" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2922">
+      <c r="A2922" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2922" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2922" t="inlineStr"/>
+      <c r="D2922" t="inlineStr"/>
+      <c r="E2922" t="inlineStr"/>
+      <c r="F2922" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2923">
+      <c r="A2923" t="n">
+        <v>22</v>
+      </c>
+      <c r="B2923" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2923" t="inlineStr"/>
+      <c r="D2923" t="inlineStr"/>
+      <c r="E2923" t="inlineStr"/>
+      <c r="F2923" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2924">
+      <c r="A2924" t="n">
+        <v>32</v>
+      </c>
+      <c r="B2924" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2924" t="inlineStr"/>
+      <c r="D2924" t="inlineStr"/>
+      <c r="E2924" t="inlineStr"/>
+      <c r="F2924" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2925">
+      <c r="A2925" t="n">
+        <v>33</v>
+      </c>
+      <c r="B2925" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2925" t="inlineStr"/>
+      <c r="D2925" t="inlineStr"/>
+      <c r="E2925" t="inlineStr"/>
+      <c r="F2925" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2926">
+      <c r="A2926" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2926" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2926" t="inlineStr"/>
+      <c r="D2926" t="inlineStr"/>
+      <c r="E2926" t="inlineStr"/>
+      <c r="F2926" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2927">
+      <c r="A2927" t="n">
+        <v>18</v>
+      </c>
+      <c r="B2927" t="inlineStr">
+        <is>
+          <t>[4]</t>
+        </is>
+      </c>
+      <c r="C2927" t="inlineStr"/>
+      <c r="D2927" t="inlineStr"/>
+      <c r="E2927" t="inlineStr"/>
+      <c r="F2927" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2928">
+      <c r="A2928" t="n">
+        <v>36</v>
+      </c>
+      <c r="B2928" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2928" t="inlineStr"/>
+      <c r="D2928" t="inlineStr"/>
+      <c r="E2928" t="inlineStr"/>
+      <c r="F2928" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2929">
+      <c r="A2929" t="n">
+        <v>34</v>
+      </c>
+      <c r="B2929" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2929" t="inlineStr"/>
+      <c r="D2929" t="inlineStr"/>
+      <c r="E2929" t="inlineStr"/>
+      <c r="F2929" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2930">
+      <c r="A2930" t="n">
+        <v>19</v>
+      </c>
+      <c r="B2930" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2930" t="inlineStr"/>
+      <c r="D2930" t="inlineStr"/>
+      <c r="E2930" t="inlineStr"/>
+      <c r="F2930" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2931">
+      <c r="A2931" t="n">
+        <v>30</v>
+      </c>
+      <c r="B2931" t="inlineStr">
+        <is>
+          <t>[7]</t>
+        </is>
+      </c>
+      <c r="C2931" t="inlineStr"/>
+      <c r="D2931" t="inlineStr"/>
+      <c r="E2931" t="inlineStr"/>
+      <c r="F2931" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2932">
+      <c r="A2932" t="n">
+        <v>20</v>
+      </c>
+      <c r="B2932" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2932" t="inlineStr"/>
+      <c r="D2932" t="inlineStr"/>
+      <c r="E2932" t="inlineStr"/>
+      <c r="F2932" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2933">
+      <c r="A2933" t="n">
+        <v>17</v>
+      </c>
+      <c r="B2933" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2933" t="inlineStr"/>
+      <c r="D2933" t="inlineStr"/>
+      <c r="E2933" t="inlineStr"/>
+      <c r="F2933" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2934">
+      <c r="A2934" t="n">
+        <v>11</v>
+      </c>
+      <c r="B2934" t="inlineStr">
+        <is>
+          <t>[12]</t>
+        </is>
+      </c>
+      <c r="C2934" t="inlineStr"/>
+      <c r="D2934" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E2934" t="inlineStr"/>
+      <c r="F2934" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2935">
+      <c r="A2935" t="n">
+        <v>28</v>
+      </c>
+      <c r="B2935" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2935" t="inlineStr"/>
+      <c r="D2935" t="inlineStr"/>
+      <c r="E2935" t="inlineStr"/>
+      <c r="F2935" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2936">
+      <c r="A2936" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2936" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2936" t="inlineStr"/>
+      <c r="D2936" t="inlineStr"/>
+      <c r="E2936" t="inlineStr"/>
+      <c r="F2936" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2937">
+      <c r="A2937" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2937" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2937" t="inlineStr"/>
+      <c r="D2937" t="inlineStr"/>
+      <c r="E2937" t="inlineStr"/>
+      <c r="F2937" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2938">
+      <c r="A2938" t="n">
+        <v>14</v>
+      </c>
+      <c r="B2938" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2938" t="inlineStr"/>
+      <c r="D2938" t="inlineStr"/>
+      <c r="E2938" t="inlineStr"/>
+      <c r="F2938" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2939">
+      <c r="A2939" t="n">
+        <v>28</v>
+      </c>
+      <c r="B2939" t="inlineStr">
+        <is>
+          <t>[20]</t>
+        </is>
+      </c>
+      <c r="C2939" t="inlineStr"/>
+      <c r="D2939" t="inlineStr"/>
+      <c r="E2939" t="inlineStr"/>
+      <c r="F2939" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2940">
+      <c r="A2940" t="n">
+        <v>25</v>
+      </c>
+      <c r="B2940" t="inlineStr">
+        <is>
+          <t>[16]</t>
+        </is>
+      </c>
+      <c r="C2940" t="inlineStr"/>
+      <c r="D2940" t="inlineStr"/>
+      <c r="E2940" t="inlineStr"/>
+      <c r="F2940" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2941">
+      <c r="A2941" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2941" t="inlineStr">
+        <is>
+          <t>[34]</t>
+        </is>
+      </c>
+      <c r="C2941" t="inlineStr"/>
+      <c r="D2941" t="inlineStr"/>
+      <c r="E2941" t="inlineStr"/>
+      <c r="F2941" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2942">
+      <c r="A2942" t="n">
+        <v>14</v>
+      </c>
+      <c r="B2942" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2942" t="inlineStr"/>
+      <c r="D2942" t="inlineStr"/>
+      <c r="E2942" t="inlineStr"/>
+      <c r="F2942" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2943">
+      <c r="A2943" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2943" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2943" t="inlineStr"/>
+      <c r="D2943" t="inlineStr"/>
+      <c r="E2943" t="inlineStr"/>
+      <c r="F2943" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2944">
+      <c r="A2944" t="n">
+        <v>32</v>
+      </c>
+      <c r="B2944" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2944" t="inlineStr"/>
+      <c r="D2944" t="inlineStr"/>
+      <c r="E2944" t="inlineStr"/>
+      <c r="F2944" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2945">
+      <c r="A2945" t="n">
+        <v>15</v>
+      </c>
+      <c r="B2945" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2945" t="inlineStr"/>
+      <c r="D2945" t="inlineStr"/>
+      <c r="E2945" t="inlineStr"/>
+      <c r="F2945" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2946">
+      <c r="A2946" t="n">
+        <v>12</v>
+      </c>
+      <c r="B2946" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2946" t="inlineStr"/>
+      <c r="D2946" t="inlineStr"/>
+      <c r="E2946" t="inlineStr"/>
+      <c r="F2946" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2947">
+      <c r="A2947" t="n">
+        <v>9</v>
+      </c>
+      <c r="B2947" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2947" t="inlineStr"/>
+      <c r="D2947" t="inlineStr"/>
+      <c r="E2947" t="inlineStr"/>
+      <c r="F2947" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2948">
+      <c r="A2948" t="n">
+        <v>24</v>
+      </c>
+      <c r="B2948" t="inlineStr">
+        <is>
+          <t>[6]</t>
+        </is>
+      </c>
+      <c r="C2948" t="inlineStr"/>
+      <c r="D2948" t="inlineStr"/>
+      <c r="E2948" t="inlineStr"/>
+      <c r="F2948" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2949">
+      <c r="A2949" t="n">
+        <v>22</v>
+      </c>
+      <c r="B2949" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+      <c r="C2949" t="inlineStr"/>
+      <c r="D2949" t="inlineStr"/>
+      <c r="E2949" t="inlineStr"/>
+      <c r="F2949" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2950">
+      <c r="A2950" t="n">
+        <v>27</v>
+      </c>
+      <c r="B2950" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2950" t="inlineStr"/>
+      <c r="D2950" t="inlineStr"/>
+      <c r="E2950" t="inlineStr"/>
+      <c r="F2950" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2951">
+      <c r="A2951" t="n">
+        <v>17</v>
+      </c>
+      <c r="B2951" t="inlineStr">
+        <is>
+          <t>[25]</t>
+        </is>
+      </c>
+      <c r="C2951" t="inlineStr"/>
+      <c r="D2951" t="inlineStr"/>
+      <c r="E2951" t="inlineStr"/>
+      <c r="F2951" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2952">
+      <c r="A2952" t="n">
+        <v>34</v>
+      </c>
+      <c r="B2952" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2952" t="inlineStr"/>
+      <c r="D2952" t="inlineStr"/>
+      <c r="E2952" t="inlineStr"/>
+      <c r="F2952" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2953">
+      <c r="A2953" t="n">
+        <v>24</v>
+      </c>
+      <c r="B2953" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2953" t="inlineStr"/>
+      <c r="D2953" t="inlineStr"/>
+      <c r="E2953" t="inlineStr"/>
+      <c r="F2953" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2954">
+      <c r="A2954" t="n">
+        <v>20</v>
+      </c>
+      <c r="B2954" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2954" t="inlineStr"/>
+      <c r="D2954" t="inlineStr"/>
+      <c r="E2954" t="inlineStr"/>
+      <c r="F2954" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2955">
+      <c r="A2955" t="n">
+        <v>26</v>
+      </c>
+      <c r="B2955" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2955" t="inlineStr"/>
+      <c r="D2955" t="inlineStr"/>
+      <c r="E2955" t="inlineStr"/>
+      <c r="F2955" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2956">
+      <c r="A2956" t="n">
+        <v>15</v>
+      </c>
+      <c r="B2956" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2956" t="inlineStr"/>
+      <c r="D2956" t="inlineStr"/>
+      <c r="E2956" t="inlineStr"/>
+      <c r="F2956" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2957">
+      <c r="A2957" t="n">
+        <v>28</v>
+      </c>
+      <c r="B2957" t="inlineStr">
+        <is>
+          <t>[11]</t>
+        </is>
+      </c>
+      <c r="C2957" t="inlineStr"/>
+      <c r="D2957" t="inlineStr"/>
+      <c r="E2957" t="inlineStr"/>
+      <c r="F2957" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2958">
+      <c r="A2958" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2958" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2958" t="inlineStr"/>
+      <c r="D2958" t="inlineStr"/>
+      <c r="E2958" t="inlineStr"/>
+      <c r="F2958" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2959">
+      <c r="A2959" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2959" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2959" t="inlineStr"/>
+      <c r="D2959" t="inlineStr"/>
+      <c r="E2959" t="inlineStr"/>
+      <c r="F2959" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2960">
+      <c r="A2960" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2960" t="inlineStr">
+        <is>
+          <t>[5]</t>
+        </is>
+      </c>
+      <c r="C2960" t="inlineStr"/>
+      <c r="D2960" t="inlineStr"/>
+      <c r="E2960" t="inlineStr"/>
+      <c r="F2960" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2961">
+      <c r="A2961" t="n">
+        <v>11</v>
+      </c>
+      <c r="B2961" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2961" t="inlineStr"/>
+      <c r="D2961" t="inlineStr"/>
+      <c r="E2961" t="inlineStr"/>
+      <c r="F2961" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2962">
+      <c r="A2962" t="n">
+        <v>15</v>
+      </c>
+      <c r="B2962" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2962" t="inlineStr"/>
+      <c r="D2962" t="inlineStr"/>
+      <c r="E2962" t="inlineStr"/>
+      <c r="F2962" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2963">
+      <c r="A2963" t="n">
+        <v>18</v>
+      </c>
+      <c r="B2963" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2963" t="inlineStr"/>
+      <c r="D2963" t="inlineStr"/>
+      <c r="E2963" t="inlineStr"/>
+      <c r="F2963" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2964">
+      <c r="A2964" t="n">
+        <v>15</v>
+      </c>
+      <c r="B2964" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2964" t="inlineStr"/>
+      <c r="D2964" t="inlineStr"/>
+      <c r="E2964" t="inlineStr"/>
+      <c r="F2964" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2965">
+      <c r="A2965" t="n">
+        <v>8</v>
+      </c>
+      <c r="B2965" t="inlineStr">
+        <is>
+          <t>[27]</t>
+        </is>
+      </c>
+      <c r="C2965" t="inlineStr"/>
+      <c r="D2965" t="inlineStr"/>
+      <c r="E2965" t="inlineStr"/>
+      <c r="F2965" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2966">
+      <c r="A2966" t="n">
+        <v>19</v>
+      </c>
+      <c r="B2966" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2966" t="inlineStr"/>
+      <c r="D2966" t="inlineStr"/>
+      <c r="E2966" t="inlineStr"/>
+      <c r="F2966" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2967">
+      <c r="A2967" t="n">
+        <v>20</v>
+      </c>
+      <c r="B2967" t="inlineStr">
+        <is>
+          <t>[33]</t>
+        </is>
+      </c>
+      <c r="C2967" t="inlineStr"/>
+      <c r="D2967" t="inlineStr"/>
+      <c r="E2967" t="inlineStr"/>
+      <c r="F2967" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2968">
+      <c r="A2968" t="n">
+        <v>21</v>
+      </c>
+      <c r="B2968" t="inlineStr">
+        <is>
+          <t>[32]</t>
+        </is>
+      </c>
+      <c r="C2968" t="inlineStr"/>
+      <c r="D2968" t="inlineStr"/>
+      <c r="E2968" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F2968" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2969">
+      <c r="A2969" t="n">
+        <v>19</v>
+      </c>
+      <c r="B2969" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2969" t="inlineStr"/>
+      <c r="D2969" t="inlineStr"/>
+      <c r="E2969" t="inlineStr"/>
+      <c r="F2969" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2970">
+      <c r="A2970" t="n">
+        <v>26</v>
+      </c>
+      <c r="B2970" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2970" t="inlineStr"/>
+      <c r="D2970" t="inlineStr"/>
+      <c r="E2970" t="inlineStr"/>
+      <c r="F2970" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2971">
+      <c r="A2971" t="n">
+        <v>11</v>
+      </c>
+      <c r="B2971" t="inlineStr">
+        <is>
+          <t>[27]</t>
+        </is>
+      </c>
+      <c r="C2971" t="inlineStr"/>
+      <c r="D2971" t="inlineStr"/>
+      <c r="E2971" t="inlineStr"/>
+      <c r="F2971" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2972">
+      <c r="A2972" t="n">
+        <v>26</v>
+      </c>
+      <c r="B2972" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2972" t="inlineStr"/>
+      <c r="D2972" t="inlineStr"/>
+      <c r="E2972" t="inlineStr"/>
+      <c r="F2972" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2973">
+      <c r="A2973" t="n">
+        <v>21</v>
+      </c>
+      <c r="B2973" t="inlineStr">
+        <is>
+          <t>[20]</t>
+        </is>
+      </c>
+      <c r="C2973" t="inlineStr"/>
+      <c r="D2973" t="inlineStr"/>
+      <c r="E2973" t="inlineStr"/>
+      <c r="F2973" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2974">
+      <c r="A2974" t="n">
+        <v>17</v>
+      </c>
+      <c r="B2974" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2974" t="inlineStr"/>
+      <c r="D2974" t="inlineStr"/>
+      <c r="E2974" t="inlineStr"/>
+      <c r="F2974" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2975">
+      <c r="A2975" t="n">
+        <v>13</v>
+      </c>
+      <c r="B2975" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2975" t="inlineStr"/>
+      <c r="D2975" t="inlineStr"/>
+      <c r="E2975" t="inlineStr"/>
+      <c r="F2975" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2976">
+      <c r="A2976" t="n">
+        <v>35</v>
+      </c>
+      <c r="B2976" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2976" t="inlineStr"/>
+      <c r="D2976" t="inlineStr"/>
+      <c r="E2976" t="inlineStr"/>
+      <c r="F2976" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2977">
+      <c r="A2977" t="n">
+        <v>26</v>
+      </c>
+      <c r="B2977" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2977" t="inlineStr"/>
+      <c r="D2977" t="inlineStr"/>
+      <c r="E2977" t="inlineStr"/>
+      <c r="F2977" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2978">
+      <c r="A2978" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2978" t="inlineStr">
+        <is>
+          <t>[4]</t>
+        </is>
+      </c>
+      <c r="C2978" t="inlineStr"/>
+      <c r="D2978" t="inlineStr"/>
+      <c r="E2978" t="inlineStr"/>
+      <c r="F2978" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2979">
+      <c r="A2979" t="n">
+        <v>25</v>
+      </c>
+      <c r="B2979" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+      <c r="C2979" t="inlineStr"/>
+      <c r="D2979" t="inlineStr"/>
+      <c r="E2979" t="inlineStr"/>
+      <c r="F2979" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2980">
+      <c r="A2980" t="n">
+        <v>15</v>
+      </c>
+      <c r="B2980" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2980" t="inlineStr"/>
+      <c r="D2980" t="inlineStr"/>
+      <c r="E2980" t="inlineStr"/>
+      <c r="F2980" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2981">
+      <c r="A2981" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2981" t="inlineStr">
+        <is>
+          <t>[22]</t>
+        </is>
+      </c>
+      <c r="C2981" t="inlineStr"/>
+      <c r="D2981" t="inlineStr"/>
+      <c r="E2981" t="inlineStr"/>
+      <c r="F2981" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2982">
+      <c r="A2982" t="n">
+        <v>19</v>
+      </c>
+      <c r="B2982" t="inlineStr">
+        <is>
+          <t>[13]</t>
+        </is>
+      </c>
+      <c r="C2982" t="inlineStr"/>
+      <c r="D2982" t="inlineStr"/>
+      <c r="E2982" t="inlineStr"/>
+      <c r="F2982" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2983">
+      <c r="A2983" t="n">
+        <v>25</v>
+      </c>
+      <c r="B2983" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2983" t="inlineStr"/>
+      <c r="D2983" t="inlineStr"/>
+      <c r="E2983" t="inlineStr"/>
+      <c r="F2983" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2984">
+      <c r="A2984" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2984" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2984" t="inlineStr"/>
+      <c r="D2984" t="inlineStr"/>
+      <c r="E2984" t="inlineStr"/>
+      <c r="F2984" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2985">
+      <c r="A2985" t="n">
+        <v>26</v>
+      </c>
+      <c r="B2985" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2985" t="inlineStr"/>
+      <c r="D2985" t="inlineStr"/>
+      <c r="E2985" t="inlineStr"/>
+      <c r="F2985" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2986">
+      <c r="A2986" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2986" t="inlineStr">
+        <is>
+          <t>[5]</t>
+        </is>
+      </c>
+      <c r="C2986" t="inlineStr"/>
+      <c r="D2986" t="inlineStr"/>
+      <c r="E2986" t="inlineStr"/>
+      <c r="F2986" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2987">
+      <c r="A2987" t="n">
+        <v>21</v>
+      </c>
+      <c r="B2987" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2987" t="inlineStr"/>
+      <c r="D2987" t="inlineStr"/>
+      <c r="E2987" t="inlineStr"/>
+      <c r="F2987" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2988">
+      <c r="A2988" t="n">
+        <v>26</v>
+      </c>
+      <c r="B2988" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2988" t="inlineStr"/>
+      <c r="D2988" t="inlineStr"/>
+      <c r="E2988" t="inlineStr"/>
+      <c r="F2988" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2989">
+      <c r="A2989" t="n">
+        <v>22</v>
+      </c>
+      <c r="B2989" t="inlineStr">
+        <is>
+          <t>[23]</t>
+        </is>
+      </c>
+      <c r="C2989" t="inlineStr"/>
+      <c r="D2989" t="inlineStr"/>
+      <c r="E2989" t="inlineStr"/>
+      <c r="F2989" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2990">
+      <c r="A2990" t="n">
+        <v>11</v>
+      </c>
+      <c r="B2990" t="inlineStr">
+        <is>
+          <t>[6]</t>
+        </is>
+      </c>
+      <c r="C2990" t="inlineStr"/>
+      <c r="D2990" t="inlineStr"/>
+      <c r="E2990" t="inlineStr"/>
+      <c r="F2990" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2991">
+      <c r="A2991" t="n">
+        <v>18</v>
+      </c>
+      <c r="B2991" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2991" t="inlineStr"/>
+      <c r="D2991" t="inlineStr"/>
+      <c r="E2991" t="inlineStr"/>
+      <c r="F2991" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2992">
+      <c r="A2992" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2992" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2992" t="inlineStr"/>
+      <c r="D2992" t="inlineStr"/>
+      <c r="E2992" t="inlineStr"/>
+      <c r="F2992" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2993">
+      <c r="A2993" t="n">
+        <v>21</v>
+      </c>
+      <c r="B2993" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2993" t="inlineStr"/>
+      <c r="D2993" t="inlineStr"/>
+      <c r="E2993" t="inlineStr"/>
+      <c r="F2993" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2994">
+      <c r="A2994" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2994" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2994" t="inlineStr"/>
+      <c r="D2994" t="inlineStr"/>
+      <c r="E2994" t="inlineStr"/>
+      <c r="F2994" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2995">
+      <c r="A2995" t="n">
+        <v>11</v>
+      </c>
+      <c r="B2995" t="inlineStr">
+        <is>
+          <t>[12]</t>
+        </is>
+      </c>
+      <c r="C2995" t="inlineStr"/>
+      <c r="D2995" t="inlineStr"/>
+      <c r="E2995" t="inlineStr"/>
+      <c r="F2995" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2996">
+      <c r="A2996" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2996" t="inlineStr">
+        <is>
+          <t>[2]</t>
+        </is>
+      </c>
+      <c r="C2996" t="inlineStr"/>
+      <c r="D2996" t="inlineStr"/>
+      <c r="E2996" t="inlineStr"/>
+      <c r="F2996" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2997">
+      <c r="A2997" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2997" t="inlineStr">
+        <is>
+          <t>[24]</t>
+        </is>
+      </c>
+      <c r="C2997" t="inlineStr"/>
+      <c r="D2997" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E2997" t="inlineStr"/>
+      <c r="F2997" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2998">
+      <c r="A2998" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2998" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2998" t="inlineStr"/>
+      <c r="D2998" t="inlineStr"/>
+      <c r="E2998" t="inlineStr"/>
+      <c r="F2998" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2999">
+      <c r="A2999" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2999" t="inlineStr">
+        <is>
+          <t>[12]</t>
+        </is>
+      </c>
+      <c r="C2999" t="inlineStr"/>
+      <c r="D2999" t="inlineStr"/>
+      <c r="E2999" t="inlineStr"/>
+      <c r="F2999" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3000">
+      <c r="A3000" t="n">
+        <v>33</v>
+      </c>
+      <c r="B3000" t="inlineStr">
+        <is>
+          <t>[24]</t>
+        </is>
+      </c>
+      <c r="C3000" t="inlineStr"/>
+      <c r="D3000" t="inlineStr"/>
+      <c r="E3000" t="inlineStr"/>
+      <c r="F3000" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3001">
+      <c r="A3001" t="n">
+        <v>32</v>
+      </c>
+      <c r="B3001" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3001" t="inlineStr"/>
+      <c r="D3001" t="inlineStr"/>
+      <c r="E3001" t="inlineStr"/>
+      <c r="F3001" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3002">
+      <c r="A3002" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3002" t="inlineStr">
+        <is>
+          <t>[28]</t>
+        </is>
+      </c>
+      <c r="C3002" t="inlineStr"/>
+      <c r="D3002" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3002" t="inlineStr"/>
+      <c r="F3002" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3003">
+      <c r="A3003" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3003" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3003" t="inlineStr"/>
+      <c r="D3003" t="inlineStr"/>
+      <c r="E3003" t="inlineStr"/>
+      <c r="F3003" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3004">
+      <c r="A3004" t="n">
+        <v>26</v>
+      </c>
+      <c r="B3004" t="inlineStr">
+        <is>
+          <t>[27]</t>
+        </is>
+      </c>
+      <c r="C3004" t="inlineStr"/>
+      <c r="D3004" t="inlineStr"/>
+      <c r="E3004" t="inlineStr"/>
+      <c r="F3004" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3005">
+      <c r="A3005" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3005" t="inlineStr">
+        <is>
+          <t>[14]</t>
+        </is>
+      </c>
+      <c r="C3005" t="inlineStr"/>
+      <c r="D3005" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3005" t="inlineStr"/>
+      <c r="F3005" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3006">
+      <c r="A3006" t="n">
+        <v>20</v>
+      </c>
+      <c r="B3006" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3006" t="inlineStr"/>
+      <c r="D3006" t="inlineStr"/>
+      <c r="E3006" t="inlineStr"/>
+      <c r="F3006" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3007">
+      <c r="A3007" t="n">
+        <v>19</v>
+      </c>
+      <c r="B3007" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3007" t="inlineStr"/>
+      <c r="D3007" t="inlineStr"/>
+      <c r="E3007" t="inlineStr"/>
+      <c r="F3007" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3008">
+      <c r="A3008" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3008" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3008" t="inlineStr"/>
+      <c r="D3008" t="inlineStr"/>
+      <c r="E3008" t="inlineStr"/>
+      <c r="F3008" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3009">
+      <c r="A3009" t="n">
+        <v>22</v>
+      </c>
+      <c r="B3009" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3009" t="inlineStr"/>
+      <c r="D3009" t="inlineStr"/>
+      <c r="E3009" t="inlineStr"/>
+      <c r="F3009" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3010">
+      <c r="A3010" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3010" t="inlineStr">
+        <is>
+          <t>[4]</t>
+        </is>
+      </c>
+      <c r="C3010" t="inlineStr"/>
+      <c r="D3010" t="inlineStr"/>
+      <c r="E3010" t="inlineStr"/>
+      <c r="F3010" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3011">
+      <c r="A3011" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3011" t="inlineStr">
+        <is>
+          <t>[28]</t>
+        </is>
+      </c>
+      <c r="C3011" t="inlineStr"/>
+      <c r="D3011" t="inlineStr"/>
+      <c r="E3011" t="inlineStr"/>
+      <c r="F3011" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3012">
+      <c r="A3012" t="n">
+        <v>27</v>
+      </c>
+      <c r="B3012" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3012" t="inlineStr"/>
+      <c r="D3012" t="inlineStr"/>
+      <c r="E3012" t="inlineStr"/>
+      <c r="F3012" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3013">
+      <c r="A3013" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3013" t="inlineStr">
+        <is>
+          <t>[22]</t>
+        </is>
+      </c>
+      <c r="C3013" t="inlineStr"/>
+      <c r="D3013" t="inlineStr"/>
+      <c r="E3013" t="inlineStr"/>
+      <c r="F3013" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3014">
+      <c r="A3014" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3014" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3014" t="inlineStr"/>
+      <c r="D3014" t="inlineStr"/>
+      <c r="E3014" t="inlineStr"/>
+      <c r="F3014" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3015">
+      <c r="A3015" t="n">
+        <v>36</v>
+      </c>
+      <c r="B3015" t="inlineStr">
+        <is>
+          <t>[13]</t>
+        </is>
+      </c>
+      <c r="C3015" t="inlineStr"/>
+      <c r="D3015" t="inlineStr"/>
+      <c r="E3015" t="inlineStr"/>
+      <c r="F3015" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3016">
+      <c r="A3016" t="n">
+        <v>19</v>
+      </c>
+      <c r="B3016" t="inlineStr">
+        <is>
+          <t>[14]</t>
+        </is>
+      </c>
+      <c r="C3016" t="inlineStr"/>
+      <c r="D3016" t="inlineStr"/>
+      <c r="E3016" t="inlineStr"/>
+      <c r="F3016" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3017">
+      <c r="A3017" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3017" t="inlineStr">
+        <is>
+          <t>[32]</t>
+        </is>
+      </c>
+      <c r="C3017" t="inlineStr"/>
+      <c r="D3017" t="inlineStr"/>
+      <c r="E3017" t="inlineStr"/>
+      <c r="F3017" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3018">
+      <c r="A3018" t="n">
+        <v>31</v>
+      </c>
+      <c r="B3018" t="inlineStr">
+        <is>
+          <t>[32]</t>
+        </is>
+      </c>
+      <c r="C3018" t="inlineStr">
+        <is>
+          <t>acierto</t>
+        </is>
+      </c>
+      <c r="D3018" t="inlineStr"/>
+      <c r="E3018" t="inlineStr"/>
+      <c r="F3018" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3019">
+      <c r="A3019" t="n">
+        <v>32</v>
+      </c>
+      <c r="B3019" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3019" t="inlineStr"/>
+      <c r="D3019" t="inlineStr"/>
+      <c r="E3019" t="inlineStr"/>
+      <c r="F3019" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3020">
+      <c r="A3020" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3020" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3020" t="inlineStr"/>
+      <c r="D3020" t="inlineStr"/>
+      <c r="E3020" t="inlineStr"/>
+      <c r="F3020" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3021">
+      <c r="A3021" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3021" t="inlineStr">
+        <is>
+          <t>[13]</t>
+        </is>
+      </c>
+      <c r="C3021" t="inlineStr"/>
+      <c r="D3021" t="inlineStr"/>
+      <c r="E3021" t="inlineStr"/>
+      <c r="F3021" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3022">
+      <c r="A3022" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3022" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3022" t="inlineStr"/>
+      <c r="D3022" t="inlineStr"/>
+      <c r="E3022" t="inlineStr"/>
+      <c r="F3022" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3023">
+      <c r="A3023" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3023" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3023" t="inlineStr"/>
+      <c r="D3023" t="inlineStr"/>
+      <c r="E3023" t="inlineStr"/>
+      <c r="F3023" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3024">
+      <c r="A3024" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3024" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3024" t="inlineStr"/>
+      <c r="D3024" t="inlineStr"/>
+      <c r="E3024" t="inlineStr"/>
+      <c r="F3024" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3025">
+      <c r="A3025" t="n">
+        <v>33</v>
+      </c>
+      <c r="B3025" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3025" t="inlineStr"/>
+      <c r="D3025" t="inlineStr"/>
+      <c r="E3025" t="inlineStr"/>
+      <c r="F3025" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3026">
+      <c r="A3026" t="n">
+        <v>35</v>
+      </c>
+      <c r="B3026" t="inlineStr">
+        <is>
+          <t>[15]</t>
+        </is>
+      </c>
+      <c r="C3026" t="inlineStr"/>
+      <c r="D3026" t="inlineStr"/>
+      <c r="E3026" t="inlineStr"/>
+      <c r="F3026" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3027">
+      <c r="A3027" t="n">
+        <v>24</v>
+      </c>
+      <c r="B3027" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="C3027" t="inlineStr"/>
+      <c r="D3027" t="inlineStr"/>
+      <c r="E3027" t="inlineStr"/>
+      <c r="F3027" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3028">
+      <c r="A3028" t="n">
+        <v>20</v>
+      </c>
+      <c r="B3028" t="inlineStr">
+        <is>
+          <t>[10]</t>
+        </is>
+      </c>
+      <c r="C3028" t="inlineStr"/>
+      <c r="D3028" t="inlineStr"/>
+      <c r="E3028" t="inlineStr"/>
+      <c r="F3028" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3029">
+      <c r="A3029" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3029" t="inlineStr">
+        <is>
+          <t>[2]</t>
+        </is>
+      </c>
+      <c r="C3029" t="inlineStr"/>
+      <c r="D3029" t="inlineStr"/>
+      <c r="E3029" t="inlineStr"/>
+      <c r="F3029" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3030">
+      <c r="A3030" t="n">
+        <v>34</v>
+      </c>
+      <c r="B3030" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3030" t="inlineStr"/>
+      <c r="D3030" t="inlineStr"/>
+      <c r="E3030" t="inlineStr"/>
+      <c r="F3030" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3031">
+      <c r="A3031" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3031" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3031" t="inlineStr"/>
+      <c r="D3031" t="inlineStr"/>
+      <c r="E3031" t="inlineStr"/>
+      <c r="F3031" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3032">
+      <c r="A3032" t="n">
+        <v>20</v>
+      </c>
+      <c r="B3032" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3032" t="inlineStr"/>
+      <c r="D3032" t="inlineStr"/>
+      <c r="E3032" t="inlineStr"/>
+      <c r="F3032" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3033">
+      <c r="A3033" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3033" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3033" t="inlineStr"/>
+      <c r="D3033" t="inlineStr"/>
+      <c r="E3033" t="inlineStr"/>
+      <c r="F3033" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3034">
+      <c r="A3034" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3034" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3034" t="inlineStr"/>
+      <c r="D3034" t="inlineStr"/>
+      <c r="E3034" t="inlineStr"/>
+      <c r="F3034" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3035">
+      <c r="A3035" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3035" t="inlineStr">
+        <is>
+          <t>[8]</t>
+        </is>
+      </c>
+      <c r="C3035" t="inlineStr"/>
+      <c r="D3035" t="inlineStr"/>
+      <c r="E3035" t="inlineStr"/>
+      <c r="F3035" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3036">
+      <c r="A3036" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3036" t="inlineStr">
+        <is>
+          <t>[3]</t>
+        </is>
+      </c>
+      <c r="C3036" t="inlineStr"/>
+      <c r="D3036" t="inlineStr"/>
+      <c r="E3036" t="inlineStr"/>
+      <c r="F3036" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3037">
+      <c r="A3037" t="n">
+        <v>29</v>
+      </c>
+      <c r="B3037" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3037" t="inlineStr"/>
+      <c r="D3037" t="inlineStr"/>
+      <c r="E3037" t="inlineStr"/>
+      <c r="F3037" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3038">
+      <c r="A3038" t="n">
+        <v>32</v>
+      </c>
+      <c r="B3038" t="inlineStr">
+        <is>
+          <t>[15]</t>
+        </is>
+      </c>
+      <c r="C3038" t="inlineStr"/>
+      <c r="D3038" t="inlineStr"/>
+      <c r="E3038" t="inlineStr"/>
+      <c r="F3038" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3039">
+      <c r="A3039" t="n">
+        <v>30</v>
+      </c>
+      <c r="B3039" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3039" t="inlineStr"/>
+      <c r="D3039" t="inlineStr"/>
+      <c r="E3039" t="inlineStr"/>
+      <c r="F3039" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3040">
+      <c r="A3040" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3040" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3040" t="inlineStr"/>
+      <c r="D3040" t="inlineStr"/>
+      <c r="E3040" t="inlineStr"/>
+      <c r="F3040" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3041">
+      <c r="A3041" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3041" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3041" t="inlineStr"/>
+      <c r="D3041" t="inlineStr"/>
+      <c r="E3041" t="inlineStr"/>
+      <c r="F3041" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3042">
+      <c r="A3042" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3042" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3042" t="inlineStr"/>
+      <c r="D3042" t="inlineStr"/>
+      <c r="E3042" t="inlineStr"/>
+      <c r="F3042" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3043">
+      <c r="A3043" t="n">
+        <v>23</v>
+      </c>
+      <c r="B3043" t="inlineStr">
+        <is>
+          <t>[28]</t>
+        </is>
+      </c>
+      <c r="C3043" t="inlineStr"/>
+      <c r="D3043" t="inlineStr"/>
+      <c r="E3043" t="inlineStr"/>
+      <c r="F3043" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3044">
+      <c r="A3044" t="n">
+        <v>23</v>
+      </c>
+      <c r="B3044" t="inlineStr">
+        <is>
+          <t>[5]</t>
+        </is>
+      </c>
+      <c r="C3044" t="inlineStr"/>
+      <c r="D3044" t="inlineStr"/>
+      <c r="E3044" t="inlineStr"/>
+      <c r="F3044" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3045">
+      <c r="A3045" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3045" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3045" t="inlineStr"/>
+      <c r="D3045" t="inlineStr"/>
+      <c r="E3045" t="inlineStr"/>
+      <c r="F3045" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3046">
+      <c r="A3046" t="n">
+        <v>19</v>
+      </c>
+      <c r="B3046" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3046" t="inlineStr"/>
+      <c r="D3046" t="inlineStr"/>
+      <c r="E3046" t="inlineStr"/>
+      <c r="F3046" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3047">
+      <c r="A3047" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3047" t="inlineStr">
+        <is>
+          <t>[14]</t>
+        </is>
+      </c>
+      <c r="C3047" t="inlineStr"/>
+      <c r="D3047" t="inlineStr"/>
+      <c r="E3047" t="inlineStr"/>
+      <c r="F3047" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3048">
+      <c r="A3048" t="n">
+        <v>24</v>
+      </c>
+      <c r="B3048" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3048" t="inlineStr"/>
+      <c r="D3048" t="inlineStr"/>
+      <c r="E3048" t="inlineStr"/>
+      <c r="F3048" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3049">
+      <c r="A3049" t="n">
+        <v>23</v>
+      </c>
+      <c r="B3049" t="inlineStr">
+        <is>
+          <t>[24]</t>
+        </is>
+      </c>
+      <c r="C3049" t="inlineStr"/>
+      <c r="D3049" t="inlineStr"/>
+      <c r="E3049" t="inlineStr"/>
+      <c r="F3049" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3050">
+      <c r="A3050" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3050" t="inlineStr">
+        <is>
+          <t>[27]</t>
+        </is>
+      </c>
+      <c r="C3050" t="inlineStr"/>
+      <c r="D3050" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3050" t="inlineStr"/>
+      <c r="F3050" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3051">
+      <c r="A3051" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3051" t="inlineStr">
+        <is>
+          <t>[36]</t>
+        </is>
+      </c>
+      <c r="C3051" t="inlineStr"/>
+      <c r="D3051" t="inlineStr"/>
+      <c r="E3051" t="inlineStr"/>
+      <c r="F3051" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3052">
+      <c r="A3052" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3052" t="inlineStr">
+        <is>
+          <t>[28]</t>
+        </is>
+      </c>
+      <c r="C3052" t="inlineStr"/>
+      <c r="D3052" t="inlineStr"/>
+      <c r="E3052" t="inlineStr"/>
+      <c r="F3052" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3053">
+      <c r="A3053" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3053" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3053" t="inlineStr"/>
+      <c r="D3053" t="inlineStr"/>
+      <c r="E3053" t="inlineStr"/>
+      <c r="F3053" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3054">
+      <c r="A3054" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3054" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3054" t="inlineStr"/>
+      <c r="D3054" t="inlineStr"/>
+      <c r="E3054" t="inlineStr"/>
+      <c r="F3054" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3055">
+      <c r="A3055" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3055" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3055" t="inlineStr"/>
+      <c r="D3055" t="inlineStr"/>
+      <c r="E3055" t="inlineStr"/>
+      <c r="F3055" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3056">
+      <c r="A3056" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3056" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3056" t="inlineStr"/>
+      <c r="D3056" t="inlineStr"/>
+      <c r="E3056" t="inlineStr"/>
+      <c r="F3056" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3057">
+      <c r="A3057" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3057" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3057" t="inlineStr"/>
+      <c r="D3057" t="inlineStr"/>
+      <c r="E3057" t="inlineStr"/>
+      <c r="F3057" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3058">
+      <c r="A3058" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3058" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3058" t="inlineStr"/>
+      <c r="D3058" t="inlineStr"/>
+      <c r="E3058" t="inlineStr"/>
+      <c r="F3058" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3059">
+      <c r="A3059" t="n">
+        <v>16</v>
+      </c>
+      <c r="B3059" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3059" t="inlineStr"/>
+      <c r="D3059" t="inlineStr"/>
+      <c r="E3059" t="inlineStr"/>
+      <c r="F3059" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3060">
+      <c r="A3060" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3060" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3060" t="inlineStr"/>
+      <c r="D3060" t="inlineStr"/>
+      <c r="E3060" t="inlineStr"/>
+      <c r="F3060" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3061">
+      <c r="A3061" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3061" t="inlineStr">
+        <is>
+          <t>[22]</t>
+        </is>
+      </c>
+      <c r="C3061" t="inlineStr"/>
+      <c r="D3061" t="inlineStr"/>
+      <c r="E3061" t="inlineStr"/>
+      <c r="F3061" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3062">
+      <c r="A3062" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3062" t="inlineStr">
+        <is>
+          <t>[22]</t>
+        </is>
+      </c>
+      <c r="C3062" t="inlineStr"/>
+      <c r="D3062" t="inlineStr"/>
+      <c r="E3062" t="inlineStr"/>
+      <c r="F3062" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3063">
+      <c r="A3063" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3063" t="inlineStr">
+        <is>
+          <t>[2]</t>
+        </is>
+      </c>
+      <c r="C3063" t="inlineStr"/>
+      <c r="D3063" t="inlineStr"/>
+      <c r="E3063" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3063" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3064">
+      <c r="A3064" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3064" t="inlineStr">
+        <is>
+          <t>[6]</t>
+        </is>
+      </c>
+      <c r="C3064" t="inlineStr"/>
+      <c r="D3064" t="inlineStr"/>
+      <c r="E3064" t="inlineStr"/>
+      <c r="F3064" t="n">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/bombay1.xlsx
+++ b/bombay1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3064"/>
+  <dimension ref="A1:F3134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50867,7 +50867,7 @@
     </row>
     <row r="3001">
       <c r="A3001" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B3001" t="inlineStr">
         <is>
@@ -50878,100 +50878,92 @@
       <c r="D3001" t="inlineStr"/>
       <c r="E3001" t="inlineStr"/>
       <c r="F3001" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3002">
       <c r="A3002" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B3002" t="inlineStr">
         <is>
-          <t>[28]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C3002" t="inlineStr"/>
-      <c r="D3002" t="inlineStr">
-        <is>
-          <t>VC</t>
-        </is>
-      </c>
+      <c r="D3002" t="inlineStr"/>
       <c r="E3002" t="inlineStr"/>
       <c r="F3002" t="n">
-        <v>41</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3003">
       <c r="A3003" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B3003" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="C3003" t="inlineStr"/>
       <c r="D3003" t="inlineStr"/>
       <c r="E3003" t="inlineStr"/>
       <c r="F3003" t="n">
-        <v>42</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3004">
       <c r="A3004" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B3004" t="inlineStr">
         <is>
-          <t>[27]</t>
+          <t>[7]</t>
         </is>
       </c>
       <c r="C3004" t="inlineStr"/>
       <c r="D3004" t="inlineStr"/>
       <c r="E3004" t="inlineStr"/>
       <c r="F3004" t="n">
-        <v>43</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3005">
       <c r="A3005" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B3005" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[26]</t>
         </is>
       </c>
       <c r="C3005" t="inlineStr"/>
-      <c r="D3005" t="inlineStr">
-        <is>
-          <t>VC</t>
-        </is>
-      </c>
+      <c r="D3005" t="inlineStr"/>
       <c r="E3005" t="inlineStr"/>
       <c r="F3005" t="n">
-        <v>44</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3006">
       <c r="A3006" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B3006" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0]</t>
         </is>
       </c>
       <c r="C3006" t="inlineStr"/>
       <c r="D3006" t="inlineStr"/>
       <c r="E3006" t="inlineStr"/>
       <c r="F3006" t="n">
-        <v>45</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3007">
       <c r="A3007" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B3007" t="inlineStr">
         <is>
@@ -50982,12 +50974,12 @@
       <c r="D3007" t="inlineStr"/>
       <c r="E3007" t="inlineStr"/>
       <c r="F3007" t="n">
-        <v>46</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3008">
       <c r="A3008" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B3008" t="inlineStr">
         <is>
@@ -50998,12 +50990,12 @@
       <c r="D3008" t="inlineStr"/>
       <c r="E3008" t="inlineStr"/>
       <c r="F3008" t="n">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3009">
       <c r="A3009" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B3009" t="inlineStr">
         <is>
@@ -51014,60 +51006,64 @@
       <c r="D3009" t="inlineStr"/>
       <c r="E3009" t="inlineStr"/>
       <c r="F3009" t="n">
-        <v>48</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3010">
       <c r="A3010" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B3010" t="inlineStr">
         <is>
-          <t>[4]</t>
+          <t>[19]</t>
         </is>
       </c>
       <c r="C3010" t="inlineStr"/>
-      <c r="D3010" t="inlineStr"/>
+      <c r="D3010" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
       <c r="E3010" t="inlineStr"/>
       <c r="F3010" t="n">
-        <v>49</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3011">
       <c r="A3011" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B3011" t="inlineStr">
         <is>
-          <t>[28]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C3011" t="inlineStr"/>
       <c r="D3011" t="inlineStr"/>
       <c r="E3011" t="inlineStr"/>
       <c r="F3011" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3012">
       <c r="A3012" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B3012" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[32]</t>
         </is>
       </c>
       <c r="C3012" t="inlineStr"/>
       <c r="D3012" t="inlineStr"/>
       <c r="E3012" t="inlineStr"/>
       <c r="F3012" t="n">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3013">
       <c r="A3013" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B3013" t="inlineStr">
         <is>
@@ -51078,12 +51074,12 @@
       <c r="D3013" t="inlineStr"/>
       <c r="E3013" t="inlineStr"/>
       <c r="F3013" t="n">
-        <v>52</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3014">
       <c r="A3014" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3014" t="inlineStr">
         <is>
@@ -51094,128 +51090,128 @@
       <c r="D3014" t="inlineStr"/>
       <c r="E3014" t="inlineStr"/>
       <c r="F3014" t="n">
-        <v>53</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3015">
       <c r="A3015" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3015" t="inlineStr">
         <is>
-          <t>[13]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C3015" t="inlineStr"/>
       <c r="D3015" t="inlineStr"/>
       <c r="E3015" t="inlineStr"/>
       <c r="F3015" t="n">
-        <v>54</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3016">
       <c r="A3016" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B3016" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[6]</t>
         </is>
       </c>
       <c r="C3016" t="inlineStr"/>
       <c r="D3016" t="inlineStr"/>
       <c r="E3016" t="inlineStr"/>
       <c r="F3016" t="n">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3017">
       <c r="A3017" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B3017" t="inlineStr">
         <is>
-          <t>[32]</t>
+          <t>[22]</t>
         </is>
       </c>
       <c r="C3017" t="inlineStr"/>
       <c r="D3017" t="inlineStr"/>
       <c r="E3017" t="inlineStr"/>
       <c r="F3017" t="n">
-        <v>56</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3018">
       <c r="A3018" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B3018" t="inlineStr">
         <is>
-          <t>[32]</t>
-        </is>
-      </c>
-      <c r="C3018" t="inlineStr">
-        <is>
-          <t>acierto</t>
-        </is>
-      </c>
+          <t>[7]</t>
+        </is>
+      </c>
+      <c r="C3018" t="inlineStr"/>
       <c r="D3018" t="inlineStr"/>
       <c r="E3018" t="inlineStr"/>
       <c r="F3018" t="n">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3019">
       <c r="A3019" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B3019" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[34]</t>
         </is>
       </c>
       <c r="C3019" t="inlineStr"/>
       <c r="D3019" t="inlineStr"/>
       <c r="E3019" t="inlineStr"/>
       <c r="F3019" t="n">
-        <v>58</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3020">
       <c r="A3020" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B3020" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[30]</t>
         </is>
       </c>
       <c r="C3020" t="inlineStr"/>
       <c r="D3020" t="inlineStr"/>
       <c r="E3020" t="inlineStr"/>
       <c r="F3020" t="n">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3021">
       <c r="A3021" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B3021" t="inlineStr">
         <is>
-          <t>[13]</t>
+          <t>[30]</t>
         </is>
       </c>
       <c r="C3021" t="inlineStr"/>
       <c r="D3021" t="inlineStr"/>
-      <c r="E3021" t="inlineStr"/>
+      <c r="E3021" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
       <c r="F3021" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3022">
       <c r="A3022" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B3022" t="inlineStr">
         <is>
@@ -51226,12 +51222,12 @@
       <c r="D3022" t="inlineStr"/>
       <c r="E3022" t="inlineStr"/>
       <c r="F3022" t="n">
-        <v>61</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3023">
       <c r="A3023" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B3023" t="inlineStr">
         <is>
@@ -51242,12 +51238,12 @@
       <c r="D3023" t="inlineStr"/>
       <c r="E3023" t="inlineStr"/>
       <c r="F3023" t="n">
-        <v>62</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3024">
       <c r="A3024" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B3024" t="inlineStr">
         <is>
@@ -51258,12 +51254,12 @@
       <c r="D3024" t="inlineStr"/>
       <c r="E3024" t="inlineStr"/>
       <c r="F3024" t="n">
-        <v>63</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3025">
       <c r="A3025" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B3025" t="inlineStr">
         <is>
@@ -51274,76 +51270,76 @@
       <c r="D3025" t="inlineStr"/>
       <c r="E3025" t="inlineStr"/>
       <c r="F3025" t="n">
-        <v>64</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3026">
       <c r="A3026" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B3026" t="inlineStr">
         <is>
-          <t>[15]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C3026" t="inlineStr"/>
       <c r="D3026" t="inlineStr"/>
       <c r="E3026" t="inlineStr"/>
       <c r="F3026" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3027">
       <c r="A3027" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B3027" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C3027" t="inlineStr"/>
       <c r="D3027" t="inlineStr"/>
       <c r="E3027" t="inlineStr"/>
       <c r="F3027" t="n">
-        <v>66</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3028">
       <c r="A3028" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B3028" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C3028" t="inlineStr"/>
       <c r="D3028" t="inlineStr"/>
       <c r="E3028" t="inlineStr"/>
       <c r="F3028" t="n">
-        <v>67</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3029">
       <c r="A3029" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B3029" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="C3029" t="inlineStr"/>
       <c r="D3029" t="inlineStr"/>
       <c r="E3029" t="inlineStr"/>
       <c r="F3029" t="n">
-        <v>68</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3030">
       <c r="A3030" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B3030" t="inlineStr">
         <is>
@@ -51354,44 +51350,48 @@
       <c r="D3030" t="inlineStr"/>
       <c r="E3030" t="inlineStr"/>
       <c r="F3030" t="n">
-        <v>69</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3031">
       <c r="A3031" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3031" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[35]</t>
         </is>
       </c>
       <c r="C3031" t="inlineStr"/>
       <c r="D3031" t="inlineStr"/>
       <c r="E3031" t="inlineStr"/>
       <c r="F3031" t="n">
-        <v>70</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3032">
       <c r="A3032" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B3032" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[1]</t>
         </is>
       </c>
       <c r="C3032" t="inlineStr"/>
       <c r="D3032" t="inlineStr"/>
-      <c r="E3032" t="inlineStr"/>
+      <c r="E3032" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
       <c r="F3032" t="n">
-        <v>71</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3033">
       <c r="A3033" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B3033" t="inlineStr">
         <is>
@@ -51402,12 +51402,12 @@
       <c r="D3033" t="inlineStr"/>
       <c r="E3033" t="inlineStr"/>
       <c r="F3033" t="n">
-        <v>72</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3034">
       <c r="A3034" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3034" t="inlineStr">
         <is>
@@ -51418,76 +51418,76 @@
       <c r="D3034" t="inlineStr"/>
       <c r="E3034" t="inlineStr"/>
       <c r="F3034" t="n">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3035">
       <c r="A3035" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3035" t="inlineStr">
         <is>
-          <t>[8]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C3035" t="inlineStr"/>
       <c r="D3035" t="inlineStr"/>
       <c r="E3035" t="inlineStr"/>
       <c r="F3035" t="n">
-        <v>74</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3036">
       <c r="A3036" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3036" t="inlineStr">
         <is>
-          <t>[3]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C3036" t="inlineStr"/>
       <c r="D3036" t="inlineStr"/>
       <c r="E3036" t="inlineStr"/>
       <c r="F3036" t="n">
-        <v>75</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3037">
       <c r="A3037" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B3037" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[34]</t>
         </is>
       </c>
       <c r="C3037" t="inlineStr"/>
       <c r="D3037" t="inlineStr"/>
       <c r="E3037" t="inlineStr"/>
       <c r="F3037" t="n">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3038">
       <c r="A3038" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B3038" t="inlineStr">
         <is>
-          <t>[15]</t>
+          <t>[11]</t>
         </is>
       </c>
       <c r="C3038" t="inlineStr"/>
       <c r="D3038" t="inlineStr"/>
       <c r="E3038" t="inlineStr"/>
       <c r="F3038" t="n">
-        <v>77</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3039">
       <c r="A3039" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3039" t="inlineStr">
         <is>
@@ -51498,44 +51498,44 @@
       <c r="D3039" t="inlineStr"/>
       <c r="E3039" t="inlineStr"/>
       <c r="F3039" t="n">
-        <v>78</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3040">
       <c r="A3040" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B3040" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[32]</t>
         </is>
       </c>
       <c r="C3040" t="inlineStr"/>
       <c r="D3040" t="inlineStr"/>
       <c r="E3040" t="inlineStr"/>
       <c r="F3040" t="n">
-        <v>79</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3041">
       <c r="A3041" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B3041" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[26]</t>
         </is>
       </c>
       <c r="C3041" t="inlineStr"/>
       <c r="D3041" t="inlineStr"/>
       <c r="E3041" t="inlineStr"/>
       <c r="F3041" t="n">
-        <v>80</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3042">
       <c r="A3042" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B3042" t="inlineStr">
         <is>
@@ -51546,60 +51546,68 @@
       <c r="D3042" t="inlineStr"/>
       <c r="E3042" t="inlineStr"/>
       <c r="F3042" t="n">
-        <v>81</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3043">
       <c r="A3043" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B3043" t="inlineStr">
         <is>
-          <t>[28]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C3043" t="inlineStr"/>
       <c r="D3043" t="inlineStr"/>
       <c r="E3043" t="inlineStr"/>
       <c r="F3043" t="n">
-        <v>82</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3044">
       <c r="A3044" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B3044" t="inlineStr">
         <is>
-          <t>[5]</t>
+          <t>[31]</t>
         </is>
       </c>
       <c r="C3044" t="inlineStr"/>
       <c r="D3044" t="inlineStr"/>
-      <c r="E3044" t="inlineStr"/>
+      <c r="E3044" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
       <c r="F3044" t="n">
-        <v>83</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3045">
       <c r="A3045" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B3045" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[22]</t>
         </is>
       </c>
       <c r="C3045" t="inlineStr"/>
       <c r="D3045" t="inlineStr"/>
-      <c r="E3045" t="inlineStr"/>
+      <c r="E3045" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
       <c r="F3045" t="n">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3046">
       <c r="A3046" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B3046" t="inlineStr">
         <is>
@@ -51610,112 +51618,108 @@
       <c r="D3046" t="inlineStr"/>
       <c r="E3046" t="inlineStr"/>
       <c r="F3046" t="n">
-        <v>85</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3047">
       <c r="A3047" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B3047" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C3047" t="inlineStr"/>
       <c r="D3047" t="inlineStr"/>
       <c r="E3047" t="inlineStr"/>
       <c r="F3047" t="n">
-        <v>86</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3048">
       <c r="A3048" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B3048" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[9]</t>
         </is>
       </c>
       <c r="C3048" t="inlineStr"/>
       <c r="D3048" t="inlineStr"/>
       <c r="E3048" t="inlineStr"/>
       <c r="F3048" t="n">
-        <v>87</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3049">
       <c r="A3049" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B3049" t="inlineStr">
         <is>
-          <t>[24]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C3049" t="inlineStr"/>
       <c r="D3049" t="inlineStr"/>
       <c r="E3049" t="inlineStr"/>
       <c r="F3049" t="n">
-        <v>88</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3050">
       <c r="A3050" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B3050" t="inlineStr">
         <is>
-          <t>[27]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="C3050" t="inlineStr"/>
-      <c r="D3050" t="inlineStr">
-        <is>
-          <t>VC</t>
-        </is>
-      </c>
+      <c r="D3050" t="inlineStr"/>
       <c r="E3050" t="inlineStr"/>
       <c r="F3050" t="n">
-        <v>89</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3051">
       <c r="A3051" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B3051" t="inlineStr">
         <is>
-          <t>[36]</t>
+          <t>[26]</t>
         </is>
       </c>
       <c r="C3051" t="inlineStr"/>
       <c r="D3051" t="inlineStr"/>
       <c r="E3051" t="inlineStr"/>
       <c r="F3051" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3052">
       <c r="A3052" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B3052" t="inlineStr">
         <is>
-          <t>[28]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C3052" t="inlineStr"/>
       <c r="D3052" t="inlineStr"/>
       <c r="E3052" t="inlineStr"/>
       <c r="F3052" t="n">
-        <v>91</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3053">
       <c r="A3053" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B3053" t="inlineStr">
         <is>
@@ -51726,12 +51730,12 @@
       <c r="D3053" t="inlineStr"/>
       <c r="E3053" t="inlineStr"/>
       <c r="F3053" t="n">
-        <v>92</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3054">
       <c r="A3054" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B3054" t="inlineStr">
         <is>
@@ -51742,12 +51746,12 @@
       <c r="D3054" t="inlineStr"/>
       <c r="E3054" t="inlineStr"/>
       <c r="F3054" t="n">
-        <v>93</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3055">
       <c r="A3055" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B3055" t="inlineStr">
         <is>
@@ -51758,12 +51762,12 @@
       <c r="D3055" t="inlineStr"/>
       <c r="E3055" t="inlineStr"/>
       <c r="F3055" t="n">
-        <v>94</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3056">
       <c r="A3056" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B3056" t="inlineStr">
         <is>
@@ -51774,12 +51778,12 @@
       <c r="D3056" t="inlineStr"/>
       <c r="E3056" t="inlineStr"/>
       <c r="F3056" t="n">
-        <v>95</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3057">
       <c r="A3057" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B3057" t="inlineStr">
         <is>
@@ -51790,12 +51794,12 @@
       <c r="D3057" t="inlineStr"/>
       <c r="E3057" t="inlineStr"/>
       <c r="F3057" t="n">
-        <v>96</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3058">
       <c r="A3058" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B3058" t="inlineStr">
         <is>
@@ -51806,12 +51810,12 @@
       <c r="D3058" t="inlineStr"/>
       <c r="E3058" t="inlineStr"/>
       <c r="F3058" t="n">
-        <v>97</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3059">
       <c r="A3059" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B3059" t="inlineStr">
         <is>
@@ -51822,12 +51826,12 @@
       <c r="D3059" t="inlineStr"/>
       <c r="E3059" t="inlineStr"/>
       <c r="F3059" t="n">
-        <v>98</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3060">
       <c r="A3060" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B3060" t="inlineStr">
         <is>
@@ -51838,75 +51842,1211 @@
       <c r="D3060" t="inlineStr"/>
       <c r="E3060" t="inlineStr"/>
       <c r="F3060" t="n">
-        <v>99</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3061">
       <c r="A3061" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B3061" t="inlineStr">
         <is>
-          <t>[22]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C3061" t="inlineStr"/>
       <c r="D3061" t="inlineStr"/>
       <c r="E3061" t="inlineStr"/>
       <c r="F3061" t="n">
-        <v>100</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3062">
       <c r="A3062" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B3062" t="inlineStr">
         <is>
-          <t>[22]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C3062" t="inlineStr"/>
       <c r="D3062" t="inlineStr"/>
       <c r="E3062" t="inlineStr"/>
       <c r="F3062" t="n">
-        <v>101</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3063">
       <c r="A3063" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B3063" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[32]</t>
         </is>
       </c>
       <c r="C3063" t="inlineStr"/>
-      <c r="D3063" t="inlineStr"/>
-      <c r="E3063" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
+      <c r="D3063" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3063" t="inlineStr"/>
       <c r="F3063" t="n">
-        <v>102</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3064">
       <c r="A3064" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3064" t="inlineStr">
         <is>
-          <t>[6]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="C3064" t="inlineStr"/>
       <c r="D3064" t="inlineStr"/>
-      <c r="E3064" t="inlineStr"/>
+      <c r="E3064" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
       <c r="F3064" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3065">
+      <c r="A3065" t="n">
+        <v>23</v>
+      </c>
+      <c r="B3065" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3065" t="inlineStr"/>
+      <c r="D3065" t="inlineStr"/>
+      <c r="E3065" t="inlineStr"/>
+      <c r="F3065" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3066">
+      <c r="A3066" t="n">
+        <v>32</v>
+      </c>
+      <c r="B3066" t="inlineStr">
+        <is>
+          <t>[20]</t>
+        </is>
+      </c>
+      <c r="C3066" t="inlineStr"/>
+      <c r="D3066" t="inlineStr"/>
+      <c r="E3066" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3066" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3067">
+      <c r="A3067" t="n">
+        <v>31</v>
+      </c>
+      <c r="B3067" t="inlineStr">
+        <is>
+          <t>[16]</t>
+        </is>
+      </c>
+      <c r="C3067" t="inlineStr"/>
+      <c r="D3067" t="inlineStr"/>
+      <c r="E3067" t="inlineStr"/>
+      <c r="F3067" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3068">
+      <c r="A3068" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3068" t="inlineStr">
+        <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="C3068" t="inlineStr"/>
+      <c r="D3068" t="inlineStr"/>
+      <c r="E3068" t="inlineStr"/>
+      <c r="F3068" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3069">
+      <c r="A3069" t="n">
+        <v>28</v>
+      </c>
+      <c r="B3069" t="inlineStr">
+        <is>
+          <t>[8]</t>
+        </is>
+      </c>
+      <c r="C3069" t="inlineStr"/>
+      <c r="D3069" t="inlineStr"/>
+      <c r="E3069" t="inlineStr"/>
+      <c r="F3069" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3070">
+      <c r="A3070" t="n">
+        <v>25</v>
+      </c>
+      <c r="B3070" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3070" t="inlineStr"/>
+      <c r="D3070" t="inlineStr"/>
+      <c r="E3070" t="inlineStr"/>
+      <c r="F3070" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3071">
+      <c r="A3071" t="n">
+        <v>36</v>
+      </c>
+      <c r="B3071" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3071" t="inlineStr"/>
+      <c r="D3071" t="inlineStr"/>
+      <c r="E3071" t="inlineStr"/>
+      <c r="F3071" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3072">
+      <c r="A3072" t="n">
+        <v>34</v>
+      </c>
+      <c r="B3072" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3072" t="inlineStr"/>
+      <c r="D3072" t="inlineStr"/>
+      <c r="E3072" t="inlineStr"/>
+      <c r="F3072" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3073">
+      <c r="A3073" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3073" t="inlineStr">
+        <is>
+          <t>[12]</t>
+        </is>
+      </c>
+      <c r="C3073" t="inlineStr"/>
+      <c r="D3073" t="inlineStr"/>
+      <c r="E3073" t="inlineStr"/>
+      <c r="F3073" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3074">
+      <c r="A3074" t="n">
+        <v>16</v>
+      </c>
+      <c r="B3074" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3074" t="inlineStr"/>
+      <c r="D3074" t="inlineStr"/>
+      <c r="E3074" t="inlineStr"/>
+      <c r="F3074" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3075">
+      <c r="A3075" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3075" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3075" t="inlineStr"/>
+      <c r="D3075" t="inlineStr"/>
+      <c r="E3075" t="inlineStr"/>
+      <c r="F3075" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3076">
+      <c r="A3076" t="n">
+        <v>19</v>
+      </c>
+      <c r="B3076" t="inlineStr">
+        <is>
+          <t>[28]</t>
+        </is>
+      </c>
+      <c r="C3076" t="inlineStr"/>
+      <c r="D3076" t="inlineStr"/>
+      <c r="E3076" t="inlineStr"/>
+      <c r="F3076" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3077">
+      <c r="A3077" t="n">
+        <v>27</v>
+      </c>
+      <c r="B3077" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3077" t="inlineStr"/>
+      <c r="D3077" t="inlineStr"/>
+      <c r="E3077" t="inlineStr"/>
+      <c r="F3077" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3078">
+      <c r="A3078" t="n">
+        <v>31</v>
+      </c>
+      <c r="B3078" t="inlineStr">
+        <is>
+          <t>[28]</t>
+        </is>
+      </c>
+      <c r="C3078" t="inlineStr"/>
+      <c r="D3078" t="inlineStr"/>
+      <c r="E3078" t="inlineStr"/>
+      <c r="F3078" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3079">
+      <c r="A3079" t="n">
+        <v>20</v>
+      </c>
+      <c r="B3079" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3079" t="inlineStr"/>
+      <c r="D3079" t="inlineStr"/>
+      <c r="E3079" t="inlineStr"/>
+      <c r="F3079" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3080">
+      <c r="A3080" t="n">
+        <v>28</v>
+      </c>
+      <c r="B3080" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3080" t="inlineStr"/>
+      <c r="D3080" t="inlineStr"/>
+      <c r="E3080" t="inlineStr"/>
+      <c r="F3080" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3081">
+      <c r="A3081" t="n">
+        <v>22</v>
+      </c>
+      <c r="B3081" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3081" t="inlineStr"/>
+      <c r="D3081" t="inlineStr"/>
+      <c r="E3081" t="inlineStr"/>
+      <c r="F3081" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3082">
+      <c r="A3082" t="n">
+        <v>34</v>
+      </c>
+      <c r="B3082" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3082" t="inlineStr"/>
+      <c r="D3082" t="inlineStr"/>
+      <c r="E3082" t="inlineStr"/>
+      <c r="F3082" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3083">
+      <c r="A3083" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3083" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3083" t="inlineStr"/>
+      <c r="D3083" t="inlineStr"/>
+      <c r="E3083" t="inlineStr"/>
+      <c r="F3083" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3084">
+      <c r="A3084" t="n">
+        <v>27</v>
+      </c>
+      <c r="B3084" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3084" t="inlineStr"/>
+      <c r="D3084" t="inlineStr"/>
+      <c r="E3084" t="inlineStr"/>
+      <c r="F3084" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3085">
+      <c r="A3085" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3085" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3085" t="inlineStr"/>
+      <c r="D3085" t="inlineStr"/>
+      <c r="E3085" t="inlineStr"/>
+      <c r="F3085" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3086">
+      <c r="A3086" t="n">
+        <v>21</v>
+      </c>
+      <c r="B3086" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3086" t="inlineStr"/>
+      <c r="D3086" t="inlineStr"/>
+      <c r="E3086" t="inlineStr"/>
+      <c r="F3086" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3087">
+      <c r="A3087" t="n">
+        <v>31</v>
+      </c>
+      <c r="B3087" t="inlineStr">
+        <is>
+          <t>[35]</t>
+        </is>
+      </c>
+      <c r="C3087" t="inlineStr"/>
+      <c r="D3087" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3087" t="inlineStr"/>
+      <c r="F3087" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3088">
+      <c r="A3088" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3088" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3088" t="inlineStr"/>
+      <c r="D3088" t="inlineStr"/>
+      <c r="E3088" t="inlineStr"/>
+      <c r="F3088" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3089">
+      <c r="A3089" t="n">
+        <v>25</v>
+      </c>
+      <c r="B3089" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3089" t="inlineStr"/>
+      <c r="D3089" t="inlineStr"/>
+      <c r="E3089" t="inlineStr"/>
+      <c r="F3089" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3090">
+      <c r="A3090" t="n">
+        <v>24</v>
+      </c>
+      <c r="B3090" t="inlineStr">
+        <is>
+          <t>[32]</t>
+        </is>
+      </c>
+      <c r="C3090" t="inlineStr"/>
+      <c r="D3090" t="inlineStr"/>
+      <c r="E3090" t="inlineStr"/>
+      <c r="F3090" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3091">
+      <c r="A3091" t="n">
+        <v>25</v>
+      </c>
+      <c r="B3091" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3091" t="inlineStr"/>
+      <c r="D3091" t="inlineStr"/>
+      <c r="E3091" t="inlineStr"/>
+      <c r="F3091" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3092">
+      <c r="A3092" t="n">
+        <v>35</v>
+      </c>
+      <c r="B3092" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3092" t="inlineStr"/>
+      <c r="D3092" t="inlineStr"/>
+      <c r="E3092" t="inlineStr"/>
+      <c r="F3092" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3093">
+      <c r="A3093" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3093" t="inlineStr">
+        <is>
+          <t>[18]</t>
+        </is>
+      </c>
+      <c r="C3093" t="inlineStr"/>
+      <c r="D3093" t="inlineStr"/>
+      <c r="E3093" t="inlineStr"/>
+      <c r="F3093" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3094">
+      <c r="A3094" t="n">
+        <v>34</v>
+      </c>
+      <c r="B3094" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3094" t="inlineStr"/>
+      <c r="D3094" t="inlineStr"/>
+      <c r="E3094" t="inlineStr"/>
+      <c r="F3094" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3095">
+      <c r="A3095" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3095" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3095" t="inlineStr"/>
+      <c r="D3095" t="inlineStr"/>
+      <c r="E3095" t="inlineStr"/>
+      <c r="F3095" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3096">
+      <c r="A3096" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3096" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3096" t="inlineStr"/>
+      <c r="D3096" t="inlineStr"/>
+      <c r="E3096" t="inlineStr"/>
+      <c r="F3096" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3097">
+      <c r="A3097" t="n">
+        <v>33</v>
+      </c>
+      <c r="B3097" t="inlineStr">
+        <is>
+          <t>[20]</t>
+        </is>
+      </c>
+      <c r="C3097" t="inlineStr"/>
+      <c r="D3097" t="inlineStr"/>
+      <c r="E3097" t="inlineStr"/>
+      <c r="F3097" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3098">
+      <c r="A3098" t="n">
+        <v>29</v>
+      </c>
+      <c r="B3098" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3098" t="inlineStr"/>
+      <c r="D3098" t="inlineStr"/>
+      <c r="E3098" t="inlineStr"/>
+      <c r="F3098" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3099">
+      <c r="A3099" t="n">
+        <v>24</v>
+      </c>
+      <c r="B3099" t="inlineStr">
+        <is>
+          <t>[26]</t>
+        </is>
+      </c>
+      <c r="C3099" t="inlineStr"/>
+      <c r="D3099" t="inlineStr"/>
+      <c r="E3099" t="inlineStr"/>
+      <c r="F3099" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3100">
+      <c r="A3100" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3100" t="inlineStr">
+        <is>
+          <t>[29]</t>
+        </is>
+      </c>
+      <c r="C3100" t="inlineStr"/>
+      <c r="D3100" t="inlineStr"/>
+      <c r="E3100" t="inlineStr"/>
+      <c r="F3100" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3101">
+      <c r="A3101" t="n">
+        <v>27</v>
+      </c>
+      <c r="B3101" t="inlineStr">
+        <is>
+          <t>[4]</t>
+        </is>
+      </c>
+      <c r="C3101" t="inlineStr"/>
+      <c r="D3101" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3101" t="inlineStr"/>
+      <c r="F3101" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3102">
+      <c r="A3102" t="n">
+        <v>19</v>
+      </c>
+      <c r="B3102" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3102" t="inlineStr"/>
+      <c r="D3102" t="inlineStr"/>
+      <c r="E3102" t="inlineStr"/>
+      <c r="F3102" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3103">
+      <c r="A3103" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3103" t="inlineStr">
+        <is>
+          <t>[29]</t>
+        </is>
+      </c>
+      <c r="C3103" t="inlineStr"/>
+      <c r="D3103" t="inlineStr"/>
+      <c r="E3103" t="inlineStr"/>
+      <c r="F3103" t="n">
         <v>103</v>
+      </c>
+    </row>
+    <row r="3104">
+      <c r="A3104" t="n">
+        <v>33</v>
+      </c>
+      <c r="B3104" t="inlineStr">
+        <is>
+          <t>[31]</t>
+        </is>
+      </c>
+      <c r="C3104" t="inlineStr"/>
+      <c r="D3104" t="inlineStr"/>
+      <c r="E3104" t="inlineStr"/>
+      <c r="F3104" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3105">
+      <c r="A3105" t="n">
+        <v>26</v>
+      </c>
+      <c r="B3105" t="inlineStr">
+        <is>
+          <t>[23]</t>
+        </is>
+      </c>
+      <c r="C3105" t="inlineStr"/>
+      <c r="D3105" t="inlineStr"/>
+      <c r="E3105" t="inlineStr"/>
+      <c r="F3105" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3106">
+      <c r="A3106" t="n">
+        <v>32</v>
+      </c>
+      <c r="B3106" t="inlineStr">
+        <is>
+          <t>[33]</t>
+        </is>
+      </c>
+      <c r="C3106" t="inlineStr"/>
+      <c r="D3106" t="inlineStr"/>
+      <c r="E3106" t="inlineStr"/>
+      <c r="F3106" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3107">
+      <c r="A3107" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3107" t="inlineStr">
+        <is>
+          <t>[35]</t>
+        </is>
+      </c>
+      <c r="C3107" t="inlineStr"/>
+      <c r="D3107" t="inlineStr"/>
+      <c r="E3107" t="inlineStr"/>
+      <c r="F3107" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3108">
+      <c r="A3108" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3108" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3108" t="inlineStr"/>
+      <c r="D3108" t="inlineStr"/>
+      <c r="E3108" t="inlineStr"/>
+      <c r="F3108" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3109">
+      <c r="A3109" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3109" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3109" t="inlineStr"/>
+      <c r="D3109" t="inlineStr"/>
+      <c r="E3109" t="inlineStr"/>
+      <c r="F3109" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3110">
+      <c r="A3110" t="n">
+        <v>27</v>
+      </c>
+      <c r="B3110" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3110" t="inlineStr"/>
+      <c r="D3110" t="inlineStr"/>
+      <c r="E3110" t="inlineStr"/>
+      <c r="F3110" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3111">
+      <c r="A3111" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3111" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3111" t="inlineStr"/>
+      <c r="D3111" t="inlineStr"/>
+      <c r="E3111" t="inlineStr"/>
+      <c r="F3111" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3112">
+      <c r="A3112" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3112" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3112" t="inlineStr"/>
+      <c r="D3112" t="inlineStr"/>
+      <c r="E3112" t="inlineStr"/>
+      <c r="F3112" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3113">
+      <c r="A3113" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3113" t="inlineStr">
+        <is>
+          <t>[31]</t>
+        </is>
+      </c>
+      <c r="C3113" t="inlineStr"/>
+      <c r="D3113" t="inlineStr"/>
+      <c r="E3113" t="inlineStr"/>
+      <c r="F3113" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3114">
+      <c r="A3114" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3114" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3114" t="inlineStr"/>
+      <c r="D3114" t="inlineStr"/>
+      <c r="E3114" t="inlineStr"/>
+      <c r="F3114" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3115">
+      <c r="A3115" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3115" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3115" t="inlineStr"/>
+      <c r="D3115" t="inlineStr"/>
+      <c r="E3115" t="inlineStr"/>
+      <c r="F3115" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3116">
+      <c r="A3116" t="n">
+        <v>32</v>
+      </c>
+      <c r="B3116" t="inlineStr">
+        <is>
+          <t>[23]</t>
+        </is>
+      </c>
+      <c r="C3116" t="inlineStr"/>
+      <c r="D3116" t="inlineStr"/>
+      <c r="E3116" t="inlineStr"/>
+      <c r="F3116" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3117">
+      <c r="A3117" t="n">
+        <v>19</v>
+      </c>
+      <c r="B3117" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3117" t="inlineStr"/>
+      <c r="D3117" t="inlineStr"/>
+      <c r="E3117" t="inlineStr"/>
+      <c r="F3117" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3118">
+      <c r="A3118" t="n">
+        <v>21</v>
+      </c>
+      <c r="B3118" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3118" t="inlineStr"/>
+      <c r="D3118" t="inlineStr"/>
+      <c r="E3118" t="inlineStr"/>
+      <c r="F3118" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3119">
+      <c r="A3119" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3119" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+      <c r="C3119" t="inlineStr"/>
+      <c r="D3119" t="inlineStr"/>
+      <c r="E3119" t="inlineStr"/>
+      <c r="F3119" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3120">
+      <c r="A3120" t="n">
+        <v>18</v>
+      </c>
+      <c r="B3120" t="inlineStr">
+        <is>
+          <t>[8]</t>
+        </is>
+      </c>
+      <c r="C3120" t="inlineStr"/>
+      <c r="D3120" t="inlineStr"/>
+      <c r="E3120" t="inlineStr"/>
+      <c r="F3120" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3121">
+      <c r="A3121" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3121" t="inlineStr">
+        <is>
+          <t>[35]</t>
+        </is>
+      </c>
+      <c r="C3121" t="inlineStr"/>
+      <c r="D3121" t="inlineStr"/>
+      <c r="E3121" t="inlineStr"/>
+      <c r="F3121" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3122">
+      <c r="A3122" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3122" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3122" t="inlineStr"/>
+      <c r="D3122" t="inlineStr"/>
+      <c r="E3122" t="inlineStr"/>
+      <c r="F3122" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3123">
+      <c r="A3123" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3123" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3123" t="inlineStr"/>
+      <c r="D3123" t="inlineStr"/>
+      <c r="E3123" t="inlineStr"/>
+      <c r="F3123" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3124">
+      <c r="A3124" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3124" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3124" t="inlineStr"/>
+      <c r="D3124" t="inlineStr"/>
+      <c r="E3124" t="inlineStr"/>
+      <c r="F3124" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3125">
+      <c r="A3125" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3125" t="inlineStr">
+        <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="C3125" t="inlineStr"/>
+      <c r="D3125" t="inlineStr"/>
+      <c r="E3125" t="inlineStr"/>
+      <c r="F3125" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3126">
+      <c r="A3126" t="n">
+        <v>28</v>
+      </c>
+      <c r="B3126" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3126" t="inlineStr"/>
+      <c r="D3126" t="inlineStr"/>
+      <c r="E3126" t="inlineStr"/>
+      <c r="F3126" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3127">
+      <c r="A3127" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3127" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3127" t="inlineStr"/>
+      <c r="D3127" t="inlineStr"/>
+      <c r="E3127" t="inlineStr"/>
+      <c r="F3127" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3128">
+      <c r="A3128" t="n">
+        <v>22</v>
+      </c>
+      <c r="B3128" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3128" t="inlineStr"/>
+      <c r="D3128" t="inlineStr"/>
+      <c r="E3128" t="inlineStr"/>
+      <c r="F3128" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3129">
+      <c r="A3129" t="n">
+        <v>24</v>
+      </c>
+      <c r="B3129" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3129" t="inlineStr"/>
+      <c r="D3129" t="inlineStr"/>
+      <c r="E3129" t="inlineStr"/>
+      <c r="F3129" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3130">
+      <c r="A3130" t="n">
+        <v>29</v>
+      </c>
+      <c r="B3130" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3130" t="inlineStr"/>
+      <c r="D3130" t="inlineStr"/>
+      <c r="E3130" t="inlineStr"/>
+      <c r="F3130" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3131">
+      <c r="A3131" t="n">
+        <v>16</v>
+      </c>
+      <c r="B3131" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3131" t="inlineStr"/>
+      <c r="D3131" t="inlineStr"/>
+      <c r="E3131" t="inlineStr"/>
+      <c r="F3131" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3132">
+      <c r="A3132" t="n">
+        <v>16</v>
+      </c>
+      <c r="B3132" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3132" t="inlineStr"/>
+      <c r="D3132" t="inlineStr"/>
+      <c r="E3132" t="inlineStr"/>
+      <c r="F3132" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3133">
+      <c r="A3133" t="n">
+        <v>16</v>
+      </c>
+      <c r="B3133" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3133" t="inlineStr"/>
+      <c r="D3133" t="inlineStr"/>
+      <c r="E3133" t="inlineStr"/>
+      <c r="F3133" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3134">
+      <c r="A3134" t="n">
+        <v>30</v>
+      </c>
+      <c r="B3134" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3134" t="inlineStr"/>
+      <c r="D3134" t="inlineStr"/>
+      <c r="E3134" t="inlineStr"/>
+      <c r="F3134" t="n">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/bombay1.xlsx
+++ b/bombay1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3134"/>
+  <dimension ref="A1:F3212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53049,6 +53049,1274 @@
         <v>134</v>
       </c>
     </row>
+    <row r="3135">
+      <c r="A3135" t="n">
+        <v>26</v>
+      </c>
+      <c r="B3135" t="inlineStr">
+        <is>
+          <t>[19]</t>
+        </is>
+      </c>
+      <c r="C3135" t="inlineStr"/>
+      <c r="D3135" t="inlineStr"/>
+      <c r="E3135" t="inlineStr"/>
+      <c r="F3135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3136">
+      <c r="A3136" t="n">
+        <v>36</v>
+      </c>
+      <c r="B3136" t="inlineStr">
+        <is>
+          <t>[4]</t>
+        </is>
+      </c>
+      <c r="C3136" t="inlineStr"/>
+      <c r="D3136" t="inlineStr"/>
+      <c r="E3136" t="inlineStr"/>
+      <c r="F3136" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3137">
+      <c r="A3137" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3137" t="inlineStr">
+        <is>
+          <t>[13]</t>
+        </is>
+      </c>
+      <c r="C3137" t="inlineStr"/>
+      <c r="D3137" t="inlineStr"/>
+      <c r="E3137" t="inlineStr"/>
+      <c r="F3137" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3138">
+      <c r="A3138" t="n">
+        <v>23</v>
+      </c>
+      <c r="B3138" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3138" t="inlineStr"/>
+      <c r="D3138" t="inlineStr"/>
+      <c r="E3138" t="inlineStr"/>
+      <c r="F3138" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3139">
+      <c r="A3139" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3139" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3139" t="inlineStr"/>
+      <c r="D3139" t="inlineStr"/>
+      <c r="E3139" t="inlineStr"/>
+      <c r="F3139" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3140">
+      <c r="A3140" t="n">
+        <v>20</v>
+      </c>
+      <c r="B3140" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3140" t="inlineStr"/>
+      <c r="D3140" t="inlineStr"/>
+      <c r="E3140" t="inlineStr"/>
+      <c r="F3140" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3141">
+      <c r="A3141" t="n">
+        <v>21</v>
+      </c>
+      <c r="B3141" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3141" t="inlineStr"/>
+      <c r="D3141" t="inlineStr"/>
+      <c r="E3141" t="inlineStr"/>
+      <c r="F3141" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3142">
+      <c r="A3142" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3142" t="inlineStr">
+        <is>
+          <t>[8]</t>
+        </is>
+      </c>
+      <c r="C3142" t="inlineStr"/>
+      <c r="D3142" t="inlineStr"/>
+      <c r="E3142" t="inlineStr"/>
+      <c r="F3142" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3143">
+      <c r="A3143" t="n">
+        <v>34</v>
+      </c>
+      <c r="B3143" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3143" t="inlineStr"/>
+      <c r="D3143" t="inlineStr"/>
+      <c r="E3143" t="inlineStr"/>
+      <c r="F3143" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3144">
+      <c r="A3144" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3144" t="inlineStr">
+        <is>
+          <t>[10]</t>
+        </is>
+      </c>
+      <c r="C3144" t="inlineStr"/>
+      <c r="D3144" t="inlineStr"/>
+      <c r="E3144" t="inlineStr"/>
+      <c r="F3144" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3145">
+      <c r="A3145" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3145" t="inlineStr">
+        <is>
+          <t>[26]</t>
+        </is>
+      </c>
+      <c r="C3145" t="inlineStr">
+        <is>
+          <t>acierto</t>
+        </is>
+      </c>
+      <c r="D3145" t="inlineStr"/>
+      <c r="E3145" t="inlineStr"/>
+      <c r="F3145" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3146">
+      <c r="A3146" t="n">
+        <v>26</v>
+      </c>
+      <c r="B3146" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3146" t="inlineStr"/>
+      <c r="D3146" t="inlineStr"/>
+      <c r="E3146" t="inlineStr"/>
+      <c r="F3146" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3147">
+      <c r="A3147" t="n">
+        <v>25</v>
+      </c>
+      <c r="B3147" t="inlineStr">
+        <is>
+          <t>[15]</t>
+        </is>
+      </c>
+      <c r="C3147" t="inlineStr"/>
+      <c r="D3147" t="inlineStr"/>
+      <c r="E3147" t="inlineStr"/>
+      <c r="F3147" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3148">
+      <c r="A3148" t="n">
+        <v>28</v>
+      </c>
+      <c r="B3148" t="inlineStr">
+        <is>
+          <t>[32]</t>
+        </is>
+      </c>
+      <c r="C3148" t="inlineStr"/>
+      <c r="D3148" t="inlineStr"/>
+      <c r="E3148" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3148" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3149">
+      <c r="A3149" t="n">
+        <v>26</v>
+      </c>
+      <c r="B3149" t="inlineStr">
+        <is>
+          <t>[32]</t>
+        </is>
+      </c>
+      <c r="C3149" t="inlineStr"/>
+      <c r="D3149" t="inlineStr"/>
+      <c r="E3149" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3149" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3150">
+      <c r="A3150" t="n">
+        <v>26</v>
+      </c>
+      <c r="B3150" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3150" t="inlineStr"/>
+      <c r="D3150" t="inlineStr"/>
+      <c r="E3150" t="inlineStr"/>
+      <c r="F3150" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3151">
+      <c r="A3151" t="n">
+        <v>33</v>
+      </c>
+      <c r="B3151" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3151" t="inlineStr"/>
+      <c r="D3151" t="inlineStr"/>
+      <c r="E3151" t="inlineStr"/>
+      <c r="F3151" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3152">
+      <c r="A3152" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3152" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3152" t="inlineStr"/>
+      <c r="D3152" t="inlineStr"/>
+      <c r="E3152" t="inlineStr"/>
+      <c r="F3152" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3153">
+      <c r="A3153" t="n">
+        <v>36</v>
+      </c>
+      <c r="B3153" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3153" t="inlineStr"/>
+      <c r="D3153" t="inlineStr"/>
+      <c r="E3153" t="inlineStr"/>
+      <c r="F3153" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3154">
+      <c r="A3154" t="n">
+        <v>32</v>
+      </c>
+      <c r="B3154" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3154" t="inlineStr"/>
+      <c r="D3154" t="inlineStr"/>
+      <c r="E3154" t="inlineStr"/>
+      <c r="F3154" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3155">
+      <c r="A3155" t="n">
+        <v>25</v>
+      </c>
+      <c r="B3155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3155" t="inlineStr"/>
+      <c r="D3155" t="inlineStr"/>
+      <c r="E3155" t="inlineStr"/>
+      <c r="F3155" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3156">
+      <c r="A3156" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3156" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3156" t="inlineStr"/>
+      <c r="D3156" t="inlineStr"/>
+      <c r="E3156" t="inlineStr"/>
+      <c r="F3156" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3157">
+      <c r="A3157" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3157" t="inlineStr">
+        <is>
+          <t>[35]</t>
+        </is>
+      </c>
+      <c r="C3157" t="inlineStr"/>
+      <c r="D3157" t="inlineStr"/>
+      <c r="E3157" t="inlineStr"/>
+      <c r="F3157" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3158">
+      <c r="A3158" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3158" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3158" t="inlineStr"/>
+      <c r="D3158" t="inlineStr"/>
+      <c r="E3158" t="inlineStr"/>
+      <c r="F3158" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3159">
+      <c r="A3159" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3159" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3159" t="inlineStr"/>
+      <c r="D3159" t="inlineStr"/>
+      <c r="E3159" t="inlineStr"/>
+      <c r="F3159" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3160">
+      <c r="A3160" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3160" t="inlineStr">
+        <is>
+          <t>[3]</t>
+        </is>
+      </c>
+      <c r="C3160" t="inlineStr"/>
+      <c r="D3160" t="inlineStr"/>
+      <c r="E3160" t="inlineStr"/>
+      <c r="F3160" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3161">
+      <c r="A3161" t="n">
+        <v>32</v>
+      </c>
+      <c r="B3161" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3161" t="inlineStr"/>
+      <c r="D3161" t="inlineStr"/>
+      <c r="E3161" t="inlineStr"/>
+      <c r="F3161" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3162">
+      <c r="A3162" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3162" t="inlineStr">
+        <is>
+          <t>[24]</t>
+        </is>
+      </c>
+      <c r="C3162" t="inlineStr"/>
+      <c r="D3162" t="inlineStr"/>
+      <c r="E3162" t="inlineStr"/>
+      <c r="F3162" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3163">
+      <c r="A3163" t="n">
+        <v>28</v>
+      </c>
+      <c r="B3163" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3163" t="inlineStr"/>
+      <c r="D3163" t="inlineStr"/>
+      <c r="E3163" t="inlineStr"/>
+      <c r="F3163" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3164">
+      <c r="A3164" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3164" t="inlineStr">
+        <is>
+          <t>[19]</t>
+        </is>
+      </c>
+      <c r="C3164" t="inlineStr"/>
+      <c r="D3164" t="inlineStr"/>
+      <c r="E3164" t="inlineStr"/>
+      <c r="F3164" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3165">
+      <c r="A3165" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3165" t="inlineStr">
+        <is>
+          <t>[4]</t>
+        </is>
+      </c>
+      <c r="C3165" t="inlineStr"/>
+      <c r="D3165" t="inlineStr"/>
+      <c r="E3165" t="inlineStr"/>
+      <c r="F3165" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3166">
+      <c r="A3166" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3166" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3166" t="inlineStr"/>
+      <c r="D3166" t="inlineStr"/>
+      <c r="E3166" t="inlineStr"/>
+      <c r="F3166" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3167">
+      <c r="A3167" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3167" t="inlineStr">
+        <is>
+          <t>[15]</t>
+        </is>
+      </c>
+      <c r="C3167" t="inlineStr"/>
+      <c r="D3167" t="inlineStr"/>
+      <c r="E3167" t="inlineStr"/>
+      <c r="F3167" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3168">
+      <c r="A3168" t="n">
+        <v>27</v>
+      </c>
+      <c r="B3168" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3168" t="inlineStr"/>
+      <c r="D3168" t="inlineStr"/>
+      <c r="E3168" t="inlineStr"/>
+      <c r="F3168" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3169">
+      <c r="A3169" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3169" t="inlineStr">
+        <is>
+          <t>[23]</t>
+        </is>
+      </c>
+      <c r="C3169" t="inlineStr"/>
+      <c r="D3169" t="inlineStr"/>
+      <c r="E3169" t="inlineStr"/>
+      <c r="F3169" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3170">
+      <c r="A3170" t="n">
+        <v>28</v>
+      </c>
+      <c r="B3170" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3170" t="inlineStr"/>
+      <c r="D3170" t="inlineStr"/>
+      <c r="E3170" t="inlineStr"/>
+      <c r="F3170" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3171">
+      <c r="A3171" t="n">
+        <v>23</v>
+      </c>
+      <c r="B3171" t="inlineStr">
+        <is>
+          <t>[26]</t>
+        </is>
+      </c>
+      <c r="C3171" t="inlineStr"/>
+      <c r="D3171" t="inlineStr"/>
+      <c r="E3171" t="inlineStr"/>
+      <c r="F3171" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3172">
+      <c r="A3172" t="n">
+        <v>29</v>
+      </c>
+      <c r="B3172" t="inlineStr">
+        <is>
+          <t>[26]</t>
+        </is>
+      </c>
+      <c r="C3172" t="inlineStr"/>
+      <c r="D3172" t="inlineStr"/>
+      <c r="E3172" t="inlineStr"/>
+      <c r="F3172" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3173">
+      <c r="A3173" t="n">
+        <v>23</v>
+      </c>
+      <c r="B3173" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3173" t="inlineStr"/>
+      <c r="D3173" t="inlineStr"/>
+      <c r="E3173" t="inlineStr"/>
+      <c r="F3173" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3174">
+      <c r="A3174" t="n">
+        <v>19</v>
+      </c>
+      <c r="B3174" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3174" t="inlineStr"/>
+      <c r="D3174" t="inlineStr"/>
+      <c r="E3174" t="inlineStr"/>
+      <c r="F3174" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3175">
+      <c r="A3175" t="n">
+        <v>33</v>
+      </c>
+      <c r="B3175" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3175" t="inlineStr"/>
+      <c r="D3175" t="inlineStr"/>
+      <c r="E3175" t="inlineStr"/>
+      <c r="F3175" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3176">
+      <c r="A3176" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3176" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3176" t="inlineStr"/>
+      <c r="D3176" t="inlineStr"/>
+      <c r="E3176" t="inlineStr"/>
+      <c r="F3176" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3177">
+      <c r="A3177" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3177" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3177" t="inlineStr"/>
+      <c r="D3177" t="inlineStr"/>
+      <c r="E3177" t="inlineStr"/>
+      <c r="F3177" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3178">
+      <c r="A3178" t="n">
+        <v>16</v>
+      </c>
+      <c r="B3178" t="inlineStr">
+        <is>
+          <t>[8]</t>
+        </is>
+      </c>
+      <c r="C3178" t="inlineStr"/>
+      <c r="D3178" t="inlineStr"/>
+      <c r="E3178" t="inlineStr"/>
+      <c r="F3178" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3179">
+      <c r="A3179" t="n">
+        <v>28</v>
+      </c>
+      <c r="B3179" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3179" t="inlineStr"/>
+      <c r="D3179" t="inlineStr"/>
+      <c r="E3179" t="inlineStr"/>
+      <c r="F3179" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3180">
+      <c r="A3180" t="n">
+        <v>28</v>
+      </c>
+      <c r="B3180" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3180" t="inlineStr"/>
+      <c r="D3180" t="inlineStr"/>
+      <c r="E3180" t="inlineStr"/>
+      <c r="F3180" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3181">
+      <c r="A3181" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3181" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3181" t="inlineStr"/>
+      <c r="D3181" t="inlineStr"/>
+      <c r="E3181" t="inlineStr"/>
+      <c r="F3181" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3182">
+      <c r="A3182" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3182" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3182" t="inlineStr"/>
+      <c r="D3182" t="inlineStr"/>
+      <c r="E3182" t="inlineStr"/>
+      <c r="F3182" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3183">
+      <c r="A3183" t="n">
+        <v>23</v>
+      </c>
+      <c r="B3183" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3183" t="inlineStr"/>
+      <c r="D3183" t="inlineStr"/>
+      <c r="E3183" t="inlineStr"/>
+      <c r="F3183" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3184">
+      <c r="A3184" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3184" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3184" t="inlineStr"/>
+      <c r="D3184" t="inlineStr"/>
+      <c r="E3184" t="inlineStr"/>
+      <c r="F3184" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3185">
+      <c r="A3185" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3185" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3185" t="inlineStr"/>
+      <c r="D3185" t="inlineStr"/>
+      <c r="E3185" t="inlineStr"/>
+      <c r="F3185" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3186">
+      <c r="A3186" t="n">
+        <v>27</v>
+      </c>
+      <c r="B3186" t="inlineStr">
+        <is>
+          <t>[26]</t>
+        </is>
+      </c>
+      <c r="C3186" t="inlineStr"/>
+      <c r="D3186" t="inlineStr"/>
+      <c r="E3186" t="inlineStr"/>
+      <c r="F3186" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3187">
+      <c r="A3187" t="n">
+        <v>30</v>
+      </c>
+      <c r="B3187" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3187" t="inlineStr"/>
+      <c r="D3187" t="inlineStr"/>
+      <c r="E3187" t="inlineStr"/>
+      <c r="F3187" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3188">
+      <c r="A3188" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3188" t="inlineStr">
+        <is>
+          <t>[26]</t>
+        </is>
+      </c>
+      <c r="C3188" t="inlineStr"/>
+      <c r="D3188" t="inlineStr"/>
+      <c r="E3188" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3188" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3189">
+      <c r="A3189" t="n">
+        <v>32</v>
+      </c>
+      <c r="B3189" t="inlineStr">
+        <is>
+          <t>[26]</t>
+        </is>
+      </c>
+      <c r="C3189" t="inlineStr"/>
+      <c r="D3189" t="inlineStr"/>
+      <c r="E3189" t="inlineStr"/>
+      <c r="F3189" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3190">
+      <c r="A3190" t="n">
+        <v>23</v>
+      </c>
+      <c r="B3190" t="inlineStr">
+        <is>
+          <t>[11]</t>
+        </is>
+      </c>
+      <c r="C3190" t="inlineStr"/>
+      <c r="D3190" t="inlineStr"/>
+      <c r="E3190" t="inlineStr"/>
+      <c r="F3190" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3191">
+      <c r="A3191" t="n">
+        <v>24</v>
+      </c>
+      <c r="B3191" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3191" t="inlineStr"/>
+      <c r="D3191" t="inlineStr"/>
+      <c r="E3191" t="inlineStr"/>
+      <c r="F3191" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3192">
+      <c r="A3192" t="n">
+        <v>16</v>
+      </c>
+      <c r="B3192" t="inlineStr">
+        <is>
+          <t>[23]</t>
+        </is>
+      </c>
+      <c r="C3192" t="inlineStr"/>
+      <c r="D3192" t="inlineStr"/>
+      <c r="E3192" t="inlineStr"/>
+      <c r="F3192" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3193">
+      <c r="A3193" t="n">
+        <v>27</v>
+      </c>
+      <c r="B3193" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3193" t="inlineStr"/>
+      <c r="D3193" t="inlineStr"/>
+      <c r="E3193" t="inlineStr"/>
+      <c r="F3193" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3194">
+      <c r="A3194" t="n">
+        <v>26</v>
+      </c>
+      <c r="B3194" t="inlineStr">
+        <is>
+          <t>[28]</t>
+        </is>
+      </c>
+      <c r="C3194" t="inlineStr">
+        <is>
+          <t>acierto</t>
+        </is>
+      </c>
+      <c r="D3194" t="inlineStr"/>
+      <c r="E3194" t="inlineStr"/>
+      <c r="F3194" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3195">
+      <c r="A3195" t="n">
+        <v>28</v>
+      </c>
+      <c r="B3195" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3195" t="inlineStr"/>
+      <c r="D3195" t="inlineStr"/>
+      <c r="E3195" t="inlineStr"/>
+      <c r="F3195" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3196">
+      <c r="A3196" t="n">
+        <v>29</v>
+      </c>
+      <c r="B3196" t="inlineStr">
+        <is>
+          <t>[20]</t>
+        </is>
+      </c>
+      <c r="C3196" t="inlineStr"/>
+      <c r="D3196" t="inlineStr"/>
+      <c r="E3196" t="inlineStr"/>
+      <c r="F3196" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3197">
+      <c r="A3197" t="n">
+        <v>21</v>
+      </c>
+      <c r="B3197" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3197" t="inlineStr"/>
+      <c r="D3197" t="inlineStr"/>
+      <c r="E3197" t="inlineStr"/>
+      <c r="F3197" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3198">
+      <c r="A3198" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3198" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3198" t="inlineStr"/>
+      <c r="D3198" t="inlineStr"/>
+      <c r="E3198" t="inlineStr"/>
+      <c r="F3198" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3199">
+      <c r="A3199" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3199" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3199" t="inlineStr"/>
+      <c r="D3199" t="inlineStr"/>
+      <c r="E3199" t="inlineStr"/>
+      <c r="F3199" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3200">
+      <c r="A3200" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3200" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3200" t="inlineStr"/>
+      <c r="D3200" t="inlineStr"/>
+      <c r="E3200" t="inlineStr"/>
+      <c r="F3200" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3201">
+      <c r="A3201" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3201" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3201" t="inlineStr"/>
+      <c r="D3201" t="inlineStr"/>
+      <c r="E3201" t="inlineStr"/>
+      <c r="F3201" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3202">
+      <c r="A3202" t="n">
+        <v>25</v>
+      </c>
+      <c r="B3202" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3202" t="inlineStr"/>
+      <c r="D3202" t="inlineStr"/>
+      <c r="E3202" t="inlineStr"/>
+      <c r="F3202" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3203">
+      <c r="A3203" t="n">
+        <v>22</v>
+      </c>
+      <c r="B3203" t="inlineStr">
+        <is>
+          <t>[10]</t>
+        </is>
+      </c>
+      <c r="C3203" t="inlineStr"/>
+      <c r="D3203" t="inlineStr"/>
+      <c r="E3203" t="inlineStr"/>
+      <c r="F3203" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3204">
+      <c r="A3204" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3204" t="inlineStr">
+        <is>
+          <t>[6]</t>
+        </is>
+      </c>
+      <c r="C3204" t="inlineStr"/>
+      <c r="D3204" t="inlineStr"/>
+      <c r="E3204" t="inlineStr"/>
+      <c r="F3204" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3205">
+      <c r="A3205" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3205" t="inlineStr">
+        <is>
+          <t>[14]</t>
+        </is>
+      </c>
+      <c r="C3205" t="inlineStr"/>
+      <c r="D3205" t="inlineStr"/>
+      <c r="E3205" t="inlineStr"/>
+      <c r="F3205" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3206">
+      <c r="A3206" t="n">
+        <v>28</v>
+      </c>
+      <c r="B3206" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3206" t="inlineStr"/>
+      <c r="D3206" t="inlineStr"/>
+      <c r="E3206" t="inlineStr"/>
+      <c r="F3206" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3207">
+      <c r="A3207" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3207" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3207" t="inlineStr"/>
+      <c r="D3207" t="inlineStr"/>
+      <c r="E3207" t="inlineStr"/>
+      <c r="F3207" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3208">
+      <c r="A3208" t="n">
+        <v>25</v>
+      </c>
+      <c r="B3208" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3208" t="inlineStr"/>
+      <c r="D3208" t="inlineStr"/>
+      <c r="E3208" t="inlineStr"/>
+      <c r="F3208" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3209">
+      <c r="A3209" t="n">
+        <v>23</v>
+      </c>
+      <c r="B3209" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3209" t="inlineStr"/>
+      <c r="D3209" t="inlineStr"/>
+      <c r="E3209" t="inlineStr"/>
+      <c r="F3209" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3210">
+      <c r="A3210" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3210" t="inlineStr">
+        <is>
+          <t>[36]</t>
+        </is>
+      </c>
+      <c r="C3210" t="inlineStr"/>
+      <c r="D3210" t="inlineStr"/>
+      <c r="E3210" t="inlineStr"/>
+      <c r="F3210" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3211">
+      <c r="A3211" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3211" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3211" t="inlineStr"/>
+      <c r="D3211" t="inlineStr"/>
+      <c r="E3211" t="inlineStr"/>
+      <c r="F3211" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3212">
+      <c r="A3212" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3212" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3212" t="inlineStr"/>
+      <c r="D3212" t="inlineStr"/>
+      <c r="E3212" t="inlineStr"/>
+      <c r="F3212" t="n">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
